--- a/data-raw/bd_conteo_rapido_surveytogo.xlsx
+++ b/data-raw/bd_conteo_rapido_surveytogo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="132">
   <si>
     <t>T_Q_8_3</t>
   </si>
@@ -28,6 +28,9 @@
     <t>32.532186164</t>
   </si>
   <si>
+    <t>C1</t>
+  </si>
+  <si>
     <t>voto_sen_pvem_recap</t>
   </si>
   <si>
@@ -37,6 +40,9 @@
     <t>FrScName</t>
   </si>
   <si>
+    <t>32.481797</t>
+  </si>
+  <si>
     <t>T_Q_8_14</t>
   </si>
   <si>
@@ -46,6 +52,12 @@
     <t>Upload</t>
   </si>
   <si>
+    <t>32.57366663</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>T_Q_9_5</t>
   </si>
   <si>
@@ -70,12 +82,21 @@
     <t>Longitude</t>
   </si>
   <si>
+    <t>32.57157749</t>
+  </si>
+  <si>
     <t>T_Q_8_11</t>
   </si>
   <si>
+    <t>0694</t>
+  </si>
+  <si>
     <t>Duration</t>
   </si>
   <si>
+    <t>32.48179722</t>
+  </si>
+  <si>
     <t>Q_10</t>
   </si>
   <si>
@@ -100,9 +121,18 @@
     <t>T_Q_9_10</t>
   </si>
   <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>3. TECATE</t>
+  </si>
+  <si>
     <t>voto_sen_morena_recap</t>
   </si>
   <si>
+    <t>-116.66059631</t>
+  </si>
+  <si>
     <t>T_Q_9_17</t>
   </si>
   <si>
@@ -112,6 +142,9 @@
     <t>T_Q_8_15</t>
   </si>
   <si>
+    <t>0698</t>
+  </si>
+  <si>
     <t>T_Q_8_1</t>
   </si>
   <si>
@@ -151,6 +184,9 @@
     <t>T_Q_8_12</t>
   </si>
   <si>
+    <t>0724</t>
+  </si>
+  <si>
     <t>voto_sen_prd_pri_recap</t>
   </si>
   <si>
@@ -175,6 +211,12 @@
     <t>gps_LO</t>
   </si>
   <si>
+    <t>-116.56938134</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
     <t>UsrUnq</t>
   </si>
   <si>
@@ -205,6 +247,9 @@
     <t>Status</t>
   </si>
   <si>
+    <t>-1</t>
+  </si>
+  <si>
     <t>voto_sen_independiente_recap</t>
   </si>
   <si>
@@ -220,12 +265,21 @@
     <t>voto_sen_pri_prd</t>
   </si>
   <si>
+    <t>-116.30806455</t>
+  </si>
+  <si>
     <t>seccion</t>
   </si>
   <si>
+    <t>SOLIS IVANA</t>
+  </si>
+  <si>
     <t>Date</t>
   </si>
   <si>
+    <t>32.57366492</t>
+  </si>
+  <si>
     <t>T_Q_9_12</t>
   </si>
   <si>
@@ -286,6 +340,9 @@
     <t>voto_sen_otro_recap</t>
   </si>
   <si>
+    <t>-116.63556943</t>
+  </si>
+  <si>
     <t>mun</t>
   </si>
   <si>
@@ -301,6 +358,9 @@
     <t>32.5321660051122</t>
   </si>
   <si>
+    <t>32.51089841</t>
+  </si>
+  <si>
     <t>T_Q_8_13</t>
   </si>
   <si>
@@ -344,6 +404,9 @@
   </si>
   <si>
     <t>SbjNam</t>
+  </si>
+  <si>
+    <t>0729</t>
   </si>
   <si>
     <t>T_Q_9_1</t>
@@ -506,11 +569,11 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -803,7 +866,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:CU2"/>
+  <dimension ref="A1:CU6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -811,329 +874,1154 @@
   <sheetData>
     <row>
       <c t="s">
+        <v>29</v>
+      </c>
+      <c t="s">
+        <v>48</v>
+      </c>
+      <c t="s">
+        <v>86</v>
+      </c>
+      <c t="s">
+        <v>122</v>
+      </c>
+      <c t="s">
+        <v>129</v>
+      </c>
+      <c t="s">
+        <v>67</v>
+      </c>
+      <c t="s">
+        <v>25</v>
+      </c>
+      <c t="s">
+        <v>11</v>
+      </c>
+      <c t="s">
+        <v>71</v>
+      </c>
+      <c t="s">
+        <v>69</v>
+      </c>
+      <c t="s">
+        <v>94</v>
+      </c>
+      <c t="s">
+        <v>118</v>
+      </c>
+      <c t="s">
+        <v>17</v>
+      </c>
+      <c t="s">
+        <v>111</v>
+      </c>
+      <c t="s">
+        <v>89</v>
+      </c>
+      <c t="s">
+        <v>101</v>
+      </c>
+      <c t="s">
+        <v>60</v>
+      </c>
+      <c t="s">
+        <v>21</v>
+      </c>
+      <c t="s">
+        <v>76</v>
+      </c>
+      <c t="s">
+        <v>74</v>
+      </c>
+      <c t="s">
+        <v>28</v>
+      </c>
+      <c t="s">
+        <v>7</v>
+      </c>
+      <c t="s">
+        <v>15</v>
+      </c>
+      <c t="s">
+        <v>120</v>
+      </c>
+      <c t="s">
+        <v>18</v>
+      </c>
+      <c t="s">
+        <v>97</v>
+      </c>
+      <c t="s">
+        <v>2</v>
+      </c>
+      <c s="2" t="s">
+        <v>102</v>
+      </c>
+      <c s="2" t="s">
+        <v>64</v>
+      </c>
+      <c s="2" t="s">
+        <v>109</v>
+      </c>
+      <c s="2" t="s">
+        <v>84</v>
+      </c>
+      <c s="2" t="s">
+        <v>51</v>
+      </c>
+      <c s="2" t="s">
+        <v>43</v>
+      </c>
+      <c s="2" t="s">
+        <v>106</v>
+      </c>
+      <c s="2" t="s">
+        <v>0</v>
+      </c>
+      <c s="2" t="s">
+        <v>32</v>
+      </c>
+      <c s="2" t="s">
+        <v>62</v>
+      </c>
+      <c s="2" t="s">
+        <v>121</v>
+      </c>
+      <c s="2" t="s">
+        <v>16</v>
+      </c>
+      <c s="2" t="s">
+        <v>46</v>
+      </c>
+      <c s="2" t="s">
+        <v>80</v>
+      </c>
+      <c s="2" t="s">
+        <v>125</v>
+      </c>
+      <c s="2" t="s">
+        <v>23</v>
+      </c>
+      <c s="2" t="s">
+        <v>55</v>
+      </c>
+      <c s="2" t="s">
+        <v>115</v>
+      </c>
+      <c s="2" t="s">
+        <v>9</v>
+      </c>
+      <c s="2" t="s">
+        <v>41</v>
+      </c>
+      <c s="2" t="s">
+        <v>73</v>
+      </c>
+      <c s="2" t="s">
+        <v>127</v>
+      </c>
+      <c s="2" t="s">
+        <v>131</v>
+      </c>
+      <c s="2" t="s">
+        <v>31</v>
+      </c>
+      <c s="2" t="s">
+        <v>61</v>
+      </c>
+      <c s="2" t="s">
+        <v>119</v>
+      </c>
+      <c s="2" t="s">
+        <v>14</v>
+      </c>
+      <c s="2" t="s">
+        <v>45</v>
+      </c>
+      <c s="2" t="s">
+        <v>79</v>
+      </c>
+      <c s="2" t="s">
+        <v>1</v>
+      </c>
+      <c s="2" t="s">
+        <v>33</v>
+      </c>
+      <c s="2" t="s">
+        <v>34</v>
+      </c>
+      <c s="2" t="s">
+        <v>63</v>
+      </c>
+      <c s="2" t="s">
+        <v>88</v>
+      </c>
+      <c s="2" t="s">
+        <v>20</v>
+      </c>
+      <c s="2" t="s">
+        <v>49</v>
+      </c>
+      <c s="2" t="s">
+        <v>81</v>
+      </c>
+      <c s="2" t="s">
+        <v>96</v>
+      </c>
+      <c s="2" t="s">
+        <v>39</v>
+      </c>
+      <c s="2" t="s">
+        <v>72</v>
+      </c>
+      <c s="2" t="s">
+        <v>92</v>
+      </c>
+      <c s="2" t="s">
+        <v>52</v>
+      </c>
+      <c s="2" t="s">
+        <v>117</v>
+      </c>
+      <c s="2" t="s">
+        <v>112</v>
+      </c>
+      <c s="2" t="s">
+        <v>40</v>
+      </c>
+      <c s="2" t="s">
+        <v>30</v>
+      </c>
+      <c s="2" t="s">
+        <v>123</v>
+      </c>
+      <c s="2" t="s">
+        <v>124</v>
+      </c>
+      <c s="2" t="s">
+        <v>47</v>
+      </c>
+      <c s="2" t="s">
+        <v>126</v>
+      </c>
+      <c s="2" t="s">
+        <v>82</v>
+      </c>
+      <c s="2" t="s">
+        <v>68</v>
+      </c>
+      <c s="2" t="s">
+        <v>91</v>
+      </c>
+      <c s="2" t="s">
+        <v>93</v>
+      </c>
+      <c s="2" t="s">
+        <v>50</v>
+      </c>
+      <c s="2" t="s">
+        <v>105</v>
+      </c>
+      <c s="2" t="s">
+        <v>99</v>
+      </c>
+      <c s="2" t="s">
+        <v>90</v>
+      </c>
+      <c s="2" t="s">
+        <v>58</v>
+      </c>
+      <c s="2" t="s">
+        <v>5</v>
+      </c>
+      <c s="2" t="s">
+        <v>53</v>
+      </c>
+      <c s="2" t="s">
+        <v>37</v>
+      </c>
+      <c s="2" t="s">
+        <v>6</v>
+      </c>
+      <c s="2" t="s">
+        <v>19</v>
+      </c>
+      <c s="2" t="s">
+        <v>128</v>
+      </c>
+      <c s="2" t="s">
+        <v>110</v>
+      </c>
+      <c s="2" t="s">
+        <v>95</v>
+      </c>
+      <c s="2" t="s">
+        <v>75</v>
+      </c>
+      <c s="2" t="s">
+        <v>57</v>
+      </c>
+      <c s="2" t="s">
+        <v>78</v>
+      </c>
+      <c s="2" t="s">
+        <v>107</v>
+      </c>
+      <c s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row>
+      <c>
+        <v>203582615</v>
+      </c>
+      <c>
+        <v>-1</v>
+      </c>
+      <c s="1">
+        <v>45445.04587962963</v>
+      </c>
+      <c t="s">
+        <v>10</v>
+      </c>
+      <c t="s">
+        <v>98</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0.0069328703703703705</v>
+      </c>
+      <c s="1">
+        <v>45445.0528125</v>
+      </c>
+      <c r="J2" s="1">
+        <v>2958465.999988426</v>
+      </c>
+      <c r="M2" t="b">
+        <v>1</v>
+      </c>
+      <c>
+        <v>10</v>
+      </c>
+      <c t="b">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c>
+        <v>-117.036909023</v>
+      </c>
+      <c t="s">
+        <v>116</v>
+      </c>
+      <c>
+        <v>-8</v>
+      </c>
+      <c r="X2" s="1">
+        <v>45445.04587962963</v>
+      </c>
+      <c s="1">
+        <v>45445.0528125</v>
+      </c>
+      <c t="s">
+        <v>103</v>
+      </c>
+      <c>
+        <v>-1</v>
+      </c>
+      <c s="2" t="s">
+        <v>113</v>
+      </c>
+      <c s="2" t="s">
+        <v>104</v>
+      </c>
+      <c s="2" t="s">
+        <v>59</v>
+      </c>
+      <c s="4" t="s">
+        <v>100</v>
+      </c>
+      <c s="2" t="s">
+        <v>54</v>
+      </c>
+      <c s="2" t="s">
+        <v>44</v>
+      </c>
+      <c s="2" t="s">
+        <v>44</v>
+      </c>
+      <c s="2" t="s">
+        <v>44</v>
+      </c>
+      <c s="2" t="s">
+        <v>44</v>
+      </c>
+      <c s="2" t="s">
+        <v>44</v>
+      </c>
+      <c s="2" t="s">
+        <v>44</v>
+      </c>
+      <c s="2" t="s">
+        <v>44</v>
+      </c>
+      <c s="2" t="s">
+        <v>44</v>
+      </c>
+      <c s="2" t="s">
+        <v>44</v>
+      </c>
+      <c s="2" t="s">
+        <v>44</v>
+      </c>
+      <c s="2" t="s">
+        <v>44</v>
+      </c>
+      <c s="2" t="s">
+        <v>44</v>
+      </c>
+      <c s="2" t="s">
+        <v>44</v>
+      </c>
+      <c s="2" t="s">
+        <v>44</v>
+      </c>
+      <c s="2" t="s">
+        <v>44</v>
+      </c>
+      <c s="2" t="s">
+        <v>44</v>
+      </c>
+      <c s="2" t="s">
+        <v>44</v>
+      </c>
+      <c s="2" t="s">
+        <v>44</v>
+      </c>
+      <c s="2" t="s">
+        <v>44</v>
+      </c>
+      <c s="2" t="s">
+        <v>44</v>
+      </c>
+      <c s="2" t="s">
+        <v>44</v>
+      </c>
+      <c s="2" t="s">
+        <v>44</v>
+      </c>
+      <c s="2" t="s">
+        <v>44</v>
+      </c>
+      <c s="2" t="s">
+        <v>44</v>
+      </c>
+      <c s="2" t="s">
+        <v>44</v>
+      </c>
+      <c s="2" t="s">
+        <v>44</v>
+      </c>
+      <c s="2" t="s">
+        <v>44</v>
+      </c>
+      <c s="2" t="s">
+        <v>44</v>
+      </c>
+      <c s="2" t="s">
+        <v>44</v>
+      </c>
+      <c s="2" t="s">
+        <v>44</v>
+      </c>
+      <c s="2" t="s">
+        <v>44</v>
+      </c>
+      <c s="2" t="s">
+        <v>44</v>
+      </c>
+      <c s="2" t="s">
+        <v>44</v>
+      </c>
+      <c s="2" t="s">
+        <v>44</v>
+      </c>
+      <c s="2" t="s">
+        <v>44</v>
+      </c>
+      <c s="2" t="s">
+        <v>44</v>
+      </c>
+      <c s="2" t="s">
+        <v>44</v>
+      </c>
+      <c s="2" t="s">
+        <v>44</v>
+      </c>
+      <c s="2" t="s">
+        <v>44</v>
+      </c>
+      <c s="2" t="s">
+        <v>44</v>
+      </c>
+      <c s="2" t="s">
+        <v>44</v>
+      </c>
+      <c s="2" t="s">
+        <v>44</v>
+      </c>
+      <c s="2" t="s">
+        <v>44</v>
+      </c>
+      <c s="2" t="s">
+        <v>44</v>
+      </c>
+      <c s="2" t="s">
+        <v>44</v>
+      </c>
+      <c s="2" t="s">
+        <v>44</v>
+      </c>
+      <c s="2" t="s">
+        <v>44</v>
+      </c>
+      <c s="2" t="s">
+        <v>44</v>
+      </c>
+      <c s="2" t="s">
+        <v>44</v>
+      </c>
+      <c s="2" t="s">
+        <v>44</v>
+      </c>
+      <c s="2" t="s">
+        <v>44</v>
+      </c>
+      <c s="2" t="s">
+        <v>44</v>
+      </c>
+      <c s="2" t="s">
+        <v>44</v>
+      </c>
+      <c s="2" t="s">
+        <v>44</v>
+      </c>
+      <c s="2" t="s">
+        <v>44</v>
+      </c>
+      <c s="2" t="s">
+        <v>44</v>
+      </c>
+      <c s="2" t="s">
+        <v>44</v>
+      </c>
+      <c s="2" t="s">
+        <v>44</v>
+      </c>
+      <c s="2" t="s">
+        <v>44</v>
+      </c>
+      <c s="2" t="s">
+        <v>44</v>
+      </c>
+      <c s="2" t="s">
+        <v>44</v>
+      </c>
+      <c s="2" t="s">
+        <v>44</v>
+      </c>
+      <c s="2" t="s">
+        <v>44</v>
+      </c>
+      <c s="2" t="s">
+        <v>44</v>
+      </c>
+      <c s="2" t="s">
+        <v>44</v>
+      </c>
+      <c s="2" t="s">
+        <v>44</v>
+      </c>
+      <c s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row>
+      <c>
+        <v>203659155</v>
+      </c>
+      <c>
+        <v>-1</v>
+      </c>
+      <c s="1">
+        <v>45444.628564814811</v>
+      </c>
+      <c t="s">
+        <v>85</v>
+      </c>
+      <c t="s">
+        <v>98</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.00068287037037037036</v>
+      </c>
+      <c s="1">
+        <v>45445.399351851855</v>
+      </c>
+      <c r="J3" s="1">
+        <v>2958465.999988426</v>
+      </c>
+      <c r="M3" t="b">
+        <v>1</v>
+      </c>
+      <c>
+        <v>10</v>
+      </c>
+      <c t="b">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="5" t="s">
         <v>22</v>
       </c>
-      <c t="s">
-        <v>37</v>
-      </c>
-      <c t="s">
-        <v>69</v>
-      </c>
-      <c t="s">
-        <v>102</v>
-      </c>
-      <c t="s">
-        <v>109</v>
-      </c>
-      <c t="s">
-        <v>53</v>
-      </c>
-      <c t="s">
-        <v>19</v>
-      </c>
-      <c t="s">
-        <v>9</v>
-      </c>
-      <c t="s">
-        <v>57</v>
-      </c>
-      <c t="s">
-        <v>55</v>
-      </c>
-      <c t="s">
-        <v>76</v>
-      </c>
-      <c t="s">
-        <v>98</v>
-      </c>
-      <c t="s">
-        <v>13</v>
-      </c>
-      <c t="s">
-        <v>92</v>
-      </c>
-      <c t="s">
-        <v>71</v>
-      </c>
-      <c t="s">
-        <v>83</v>
-      </c>
-      <c t="s">
-        <v>48</v>
-      </c>
-      <c t="s">
-        <v>17</v>
-      </c>
-      <c t="s">
-        <v>62</v>
-      </c>
-      <c t="s">
-        <v>60</v>
-      </c>
-      <c t="s">
-        <v>21</v>
-      </c>
-      <c t="s">
-        <v>6</v>
-      </c>
-      <c t="s">
-        <v>11</v>
-      </c>
-      <c t="s">
-        <v>100</v>
-      </c>
-      <c t="s">
-        <v>14</v>
-      </c>
-      <c t="s">
-        <v>79</v>
-      </c>
-      <c t="s">
-        <v>2</v>
-      </c>
-      <c s="4" t="s">
-        <v>84</v>
-      </c>
-      <c s="4" t="s">
-        <v>52</v>
-      </c>
-      <c s="4" t="s">
-        <v>90</v>
-      </c>
-      <c s="4" t="s">
-        <v>68</v>
-      </c>
-      <c s="4" t="s">
-        <v>40</v>
-      </c>
-      <c s="4" t="s">
-        <v>32</v>
-      </c>
-      <c s="4" t="s">
-        <v>88</v>
-      </c>
-      <c s="4" t="s">
-        <v>0</v>
-      </c>
-      <c s="4" t="s">
-        <v>25</v>
-      </c>
-      <c s="4" t="s">
-        <v>50</v>
-      </c>
-      <c s="4" t="s">
-        <v>101</v>
-      </c>
-      <c s="4" t="s">
-        <v>12</v>
-      </c>
-      <c s="4" t="s">
-        <v>35</v>
-      </c>
-      <c s="4" t="s">
-        <v>65</v>
-      </c>
-      <c s="4" t="s">
-        <v>105</v>
-      </c>
-      <c s="4" t="s">
-        <v>18</v>
-      </c>
-      <c s="4" t="s">
-        <v>44</v>
-      </c>
-      <c s="4" t="s">
-        <v>95</v>
-      </c>
-      <c s="4" t="s">
-        <v>7</v>
-      </c>
-      <c s="4" t="s">
-        <v>31</v>
-      </c>
-      <c s="4" t="s">
-        <v>59</v>
-      </c>
-      <c s="4" t="s">
-        <v>107</v>
-      </c>
-      <c s="4" t="s">
-        <v>110</v>
+      <c>
+        <v>-116.66059631</v>
+      </c>
+      <c t="s">
+        <v>116</v>
+      </c>
+      <c>
+        <v>-8</v>
+      </c>
+      <c r="X3" s="1">
+        <v>45444.628564814811</v>
+      </c>
+      <c s="1">
+        <v>45444.629247685189</v>
+      </c>
+      <c t="s">
+        <v>103</v>
+      </c>
+      <c>
+        <v>-1</v>
+      </c>
+      <c s="2" t="s">
+        <v>22</v>
+      </c>
+      <c s="2" t="s">
+        <v>38</v>
+      </c>
+      <c s="2" t="s">
+        <v>36</v>
       </c>
       <c s="4" t="s">
         <v>24</v>
       </c>
-      <c s="4" t="s">
-        <v>49</v>
-      </c>
-      <c s="4" t="s">
-        <v>99</v>
-      </c>
-      <c s="4" t="s">
+      <c s="2" t="s">
+        <v>35</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>13</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>13</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row>
+      <c>
+        <v>203659159</v>
+      </c>
+      <c>
+        <v>-1</v>
+      </c>
+      <c s="1">
+        <v>45444.639502314814</v>
+      </c>
+      <c t="s">
+        <v>85</v>
+      </c>
+      <c t="s">
+        <v>98</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.0006018518518518519</v>
+      </c>
+      <c s="1">
+        <v>45445.399351851855</v>
+      </c>
+      <c r="J4" s="1">
+        <v>2958465.999988426</v>
+      </c>
+      <c r="M4" t="b">
+        <v>1</v>
+      </c>
+      <c>
         <v>10</v>
       </c>
-      <c s="4" t="s">
-        <v>34</v>
-      </c>
-      <c s="4" t="s">
-        <v>64</v>
-      </c>
-      <c s="4" t="s">
-        <v>1</v>
-      </c>
-      <c s="4" t="s">
-        <v>26</v>
-      </c>
-      <c s="4" t="s">
-        <v>27</v>
-      </c>
-      <c s="4" t="s">
-        <v>51</v>
-      </c>
-      <c s="4" t="s">
-        <v>70</v>
-      </c>
-      <c s="4" t="s">
-        <v>16</v>
-      </c>
-      <c s="4" t="s">
-        <v>38</v>
-      </c>
-      <c s="4" t="s">
-        <v>66</v>
-      </c>
-      <c s="4" t="s">
-        <v>78</v>
-      </c>
-      <c s="4" t="s">
-        <v>29</v>
-      </c>
-      <c s="4" t="s">
-        <v>58</v>
-      </c>
-      <c s="4" t="s">
-        <v>74</v>
-      </c>
-      <c s="4" t="s">
-        <v>41</v>
-      </c>
-      <c s="4" t="s">
-        <v>97</v>
-      </c>
-      <c s="4" t="s">
-        <v>93</v>
-      </c>
-      <c s="4" t="s">
-        <v>30</v>
-      </c>
-      <c s="4" t="s">
-        <v>23</v>
-      </c>
-      <c s="4" t="s">
+      <c t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c>
+        <v>-116.63557153</v>
+      </c>
+      <c t="s">
+        <v>116</v>
+      </c>
+      <c>
+        <v>-8</v>
+      </c>
+      <c r="X4" s="1">
+        <v>45444.639502314814</v>
+      </c>
+      <c s="1">
+        <v>45444.640115740738</v>
+      </c>
+      <c t="s">
         <v>103</v>
       </c>
-      <c s="4" t="s">
-        <v>104</v>
-      </c>
-      <c s="4" t="s">
+      <c>
+        <v>-1</v>
+      </c>
+      <c s="2" t="s">
+        <v>12</v>
+      </c>
+      <c s="2" t="s">
+        <v>108</v>
+      </c>
+      <c s="2" t="s">
         <v>36</v>
-      </c>
-      <c s="4" t="s">
-        <v>106</v>
-      </c>
-      <c s="4" t="s">
-        <v>67</v>
-      </c>
-      <c s="4" t="s">
-        <v>54</v>
-      </c>
-      <c s="4" t="s">
-        <v>73</v>
-      </c>
-      <c s="4" t="s">
-        <v>75</v>
-      </c>
-      <c s="4" t="s">
-        <v>39</v>
-      </c>
-      <c s="4" t="s">
-        <v>87</v>
-      </c>
-      <c s="4" t="s">
-        <v>81</v>
-      </c>
-      <c s="4" t="s">
-        <v>72</v>
-      </c>
-      <c s="4" t="s">
-        <v>46</v>
-      </c>
-      <c s="4" t="s">
-        <v>4</v>
       </c>
       <c s="4" t="s">
         <v>42</v>
       </c>
-      <c s="4" t="s">
-        <v>28</v>
-      </c>
-      <c s="4" t="s">
-        <v>5</v>
-      </c>
-      <c s="4" t="s">
-        <v>15</v>
-      </c>
-      <c s="4" t="s">
-        <v>108</v>
-      </c>
-      <c s="4" t="s">
-        <v>91</v>
-      </c>
-      <c s="4" t="s">
-        <v>77</v>
-      </c>
-      <c s="4" t="s">
-        <v>61</v>
-      </c>
-      <c s="4" t="s">
-        <v>45</v>
-      </c>
-      <c s="4" t="s">
-        <v>63</v>
-      </c>
-      <c s="4" t="s">
-        <v>89</v>
-      </c>
-      <c s="4" t="s">
-        <v>20</v>
+      <c s="2" t="s">
+        <v>4</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>13</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>13</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>70</v>
       </c>
     </row>
     <row>
       <c>
-        <v>203582615</v>
+        <v>203659192</v>
       </c>
       <c>
         <v>-1</v>
       </c>
-      <c s="3">
-        <v>45445.04587962963</v>
-      </c>
-      <c t="s">
-        <v>8</v>
-      </c>
-      <c t="s">
-        <v>80</v>
-      </c>
-      <c r="G2" s="5">
-        <v>0.0069328703703703705</v>
-      </c>
-      <c s="3">
-        <v>45445.0528125</v>
-      </c>
-      <c r="J2" s="3">
+      <c s="1">
+        <v>45444.681111111109</v>
+      </c>
+      <c t="s">
+        <v>85</v>
+      </c>
+      <c t="s">
+        <v>98</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.00052083333333333333</v>
+      </c>
+      <c s="1">
+        <v>45445.399375</v>
+      </c>
+      <c r="J5" s="1">
         <v>2958465.999988426</v>
       </c>
-      <c r="M2" t="b">
+      <c r="M5" t="b">
         <v>1</v>
       </c>
       <c>
@@ -1142,245 +2030,520 @@
       <c t="b">
         <v>0</v>
       </c>
-      <c r="Q2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c>
-        <v>-117.036909023</v>
-      </c>
-      <c t="s">
-        <v>96</v>
+      <c r="Q5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c>
+        <v>-116.569382</v>
+      </c>
+      <c t="s">
+        <v>116</v>
       </c>
       <c>
         <v>-8</v>
       </c>
-      <c r="X2" s="3">
-        <v>45445.04587962963</v>
-      </c>
-      <c s="3">
-        <v>45445.0528125</v>
-      </c>
-      <c t="s">
-        <v>85</v>
+      <c r="X5" s="1">
+        <v>45444.681111111109</v>
+      </c>
+      <c s="1">
+        <v>45444.681643518517</v>
+      </c>
+      <c t="s">
+        <v>103</v>
       </c>
       <c>
         <v>-1</v>
       </c>
-      <c s="4" t="s">
-        <v>94</v>
-      </c>
-      <c s="4" t="s">
-        <v>86</v>
-      </c>
-      <c s="4" t="s">
-        <v>47</v>
-      </c>
-      <c s="2" t="s">
-        <v>82</v>
-      </c>
-      <c s="4" t="s">
-        <v>43</v>
-      </c>
-      <c s="4" t="s">
-        <v>33</v>
-      </c>
-      <c s="4" t="s">
-        <v>33</v>
-      </c>
-      <c s="4" t="s">
-        <v>33</v>
-      </c>
-      <c s="4" t="s">
-        <v>33</v>
-      </c>
-      <c s="4" t="s">
-        <v>33</v>
-      </c>
-      <c s="4" t="s">
-        <v>33</v>
-      </c>
-      <c s="4" t="s">
-        <v>33</v>
-      </c>
-      <c s="4" t="s">
-        <v>33</v>
-      </c>
-      <c s="4" t="s">
-        <v>33</v>
-      </c>
-      <c s="4" t="s">
-        <v>33</v>
-      </c>
-      <c s="4" t="s">
-        <v>33</v>
-      </c>
-      <c s="4" t="s">
-        <v>33</v>
-      </c>
-      <c s="4" t="s">
-        <v>33</v>
-      </c>
-      <c s="4" t="s">
-        <v>33</v>
-      </c>
-      <c s="4" t="s">
-        <v>33</v>
-      </c>
-      <c s="4" t="s">
-        <v>33</v>
-      </c>
-      <c s="4" t="s">
-        <v>33</v>
-      </c>
-      <c s="4" t="s">
-        <v>33</v>
-      </c>
-      <c s="4" t="s">
-        <v>33</v>
-      </c>
-      <c s="4" t="s">
-        <v>33</v>
-      </c>
-      <c s="4" t="s">
-        <v>33</v>
-      </c>
-      <c s="4" t="s">
-        <v>33</v>
-      </c>
-      <c s="4" t="s">
-        <v>33</v>
-      </c>
-      <c s="4" t="s">
-        <v>33</v>
-      </c>
-      <c s="4" t="s">
-        <v>33</v>
-      </c>
-      <c s="4" t="s">
-        <v>33</v>
-      </c>
-      <c s="4" t="s">
-        <v>33</v>
-      </c>
-      <c s="4" t="s">
-        <v>33</v>
-      </c>
-      <c s="4" t="s">
-        <v>33</v>
-      </c>
-      <c s="4" t="s">
-        <v>33</v>
-      </c>
-      <c s="4" t="s">
-        <v>33</v>
-      </c>
-      <c s="4" t="s">
-        <v>33</v>
-      </c>
-      <c s="4" t="s">
-        <v>33</v>
-      </c>
-      <c s="4" t="s">
-        <v>33</v>
-      </c>
-      <c s="4" t="s">
-        <v>33</v>
-      </c>
-      <c s="4" t="s">
-        <v>33</v>
-      </c>
-      <c s="4" t="s">
-        <v>33</v>
-      </c>
-      <c s="4" t="s">
-        <v>33</v>
-      </c>
-      <c s="4" t="s">
-        <v>33</v>
-      </c>
-      <c s="4" t="s">
-        <v>33</v>
-      </c>
-      <c s="4" t="s">
-        <v>33</v>
-      </c>
-      <c s="4" t="s">
-        <v>33</v>
-      </c>
-      <c s="4" t="s">
-        <v>33</v>
-      </c>
-      <c s="4" t="s">
-        <v>33</v>
-      </c>
-      <c s="4" t="s">
-        <v>33</v>
-      </c>
-      <c s="4" t="s">
-        <v>33</v>
-      </c>
-      <c s="4" t="s">
-        <v>33</v>
-      </c>
-      <c s="4" t="s">
-        <v>33</v>
-      </c>
-      <c s="4" t="s">
-        <v>33</v>
-      </c>
-      <c s="4" t="s">
-        <v>33</v>
-      </c>
-      <c s="4" t="s">
-        <v>33</v>
-      </c>
-      <c s="4" t="s">
-        <v>33</v>
-      </c>
-      <c s="4" t="s">
-        <v>33</v>
-      </c>
-      <c s="4" t="s">
-        <v>33</v>
-      </c>
-      <c s="4" t="s">
-        <v>33</v>
-      </c>
-      <c s="4" t="s">
-        <v>33</v>
-      </c>
-      <c s="4" t="s">
-        <v>33</v>
-      </c>
-      <c s="4" t="s">
-        <v>33</v>
-      </c>
-      <c s="4" t="s">
-        <v>33</v>
-      </c>
-      <c s="4" t="s">
-        <v>33</v>
-      </c>
-      <c s="4" t="s">
-        <v>33</v>
-      </c>
-      <c s="4" t="s">
-        <v>33</v>
-      </c>
-      <c s="4" t="s">
-        <v>33</v>
-      </c>
-      <c s="4" t="s">
-        <v>33</v>
-      </c>
-      <c s="4" t="s">
-        <v>33</v>
-      </c>
-      <c s="4" t="s">
-        <v>33</v>
+      <c s="2" t="s">
+        <v>26</v>
+      </c>
+      <c s="2" t="s">
+        <v>65</v>
+      </c>
+      <c s="2" t="s">
+        <v>36</v>
       </c>
       <c s="4" t="s">
         <v>56</v>
+      </c>
+      <c s="2" t="s">
+        <v>66</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>13</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>13</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row>
+      <c>
+        <v>203659196</v>
+      </c>
+      <c>
+        <v>-1</v>
+      </c>
+      <c s="1">
+        <v>45444.747893518521</v>
+      </c>
+      <c t="s">
+        <v>85</v>
+      </c>
+      <c t="s">
+        <v>98</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.00045138888888888887</v>
+      </c>
+      <c s="1">
+        <v>45445.399375</v>
+      </c>
+      <c r="J6" s="1">
+        <v>2958465.999988426</v>
+      </c>
+      <c r="M6" t="b">
+        <v>1</v>
+      </c>
+      <c>
+        <v>10</v>
+      </c>
+      <c t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c>
+        <v>-116.30806455</v>
+      </c>
+      <c t="s">
+        <v>116</v>
+      </c>
+      <c>
+        <v>-8</v>
+      </c>
+      <c r="X6" s="1">
+        <v>45444.747893518521</v>
+      </c>
+      <c s="1">
+        <v>45444.748356481483</v>
+      </c>
+      <c t="s">
+        <v>103</v>
+      </c>
+      <c>
+        <v>-1</v>
+      </c>
+      <c s="2" t="s">
+        <v>114</v>
+      </c>
+      <c s="2" t="s">
+        <v>83</v>
+      </c>
+      <c s="2" t="s">
+        <v>36</v>
+      </c>
+      <c s="4" t="s">
+        <v>130</v>
+      </c>
+      <c s="2" t="s">
+        <v>54</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>13</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>13</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/bd_conteo_rapido_surveytogo.xlsx
+++ b/data-raw/bd_conteo_rapido_surveytogo.xlsx
@@ -569,11 +569,11 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1178,7 +1178,7 @@
       <c>
         <v>-1</v>
       </c>
-      <c s="1">
+      <c s="3">
         <v>45445.04587962963</v>
       </c>
       <c t="s">
@@ -1187,13 +1187,13 @@
       <c t="s">
         <v>98</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="4">
         <v>0.0069328703703703705</v>
       </c>
-      <c s="1">
+      <c s="3">
         <v>45445.0528125</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="3">
         <v>2958465.999988426</v>
       </c>
       <c r="M2" t="b">
@@ -1205,7 +1205,7 @@
       <c t="b">
         <v>0</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="Q2" s="1" t="s">
         <v>3</v>
       </c>
       <c>
@@ -1217,10 +1217,10 @@
       <c>
         <v>-8</v>
       </c>
-      <c r="X2" s="1">
+      <c r="X2" s="3">
         <v>45445.04587962963</v>
       </c>
-      <c s="1">
+      <c s="3">
         <v>45445.0528125</v>
       </c>
       <c t="s">
@@ -1238,7 +1238,7 @@
       <c s="2" t="s">
         <v>59</v>
       </c>
-      <c s="4" t="s">
+      <c s="5" t="s">
         <v>100</v>
       </c>
       <c s="2" t="s">
@@ -1453,7 +1453,7 @@
       <c>
         <v>-1</v>
       </c>
-      <c s="1">
+      <c s="3">
         <v>45444.628564814811</v>
       </c>
       <c t="s">
@@ -1462,13 +1462,13 @@
       <c t="s">
         <v>98</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="4">
         <v>0.00068287037037037036</v>
       </c>
-      <c s="1">
+      <c s="3">
         <v>45445.399351851855</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="3">
         <v>2958465.999988426</v>
       </c>
       <c r="M3" t="b">
@@ -1480,7 +1480,7 @@
       <c t="b">
         <v>0</v>
       </c>
-      <c r="Q3" s="5" t="s">
+      <c r="Q3" s="1" t="s">
         <v>22</v>
       </c>
       <c>
@@ -1492,10 +1492,10 @@
       <c>
         <v>-8</v>
       </c>
-      <c r="X3" s="1">
+      <c r="X3" s="3">
         <v>45444.628564814811</v>
       </c>
-      <c s="1">
+      <c s="3">
         <v>45444.629247685189</v>
       </c>
       <c t="s">
@@ -1513,7 +1513,7 @@
       <c s="2" t="s">
         <v>36</v>
       </c>
-      <c s="4" t="s">
+      <c s="5" t="s">
         <v>24</v>
       </c>
       <c s="2" t="s">
@@ -1728,7 +1728,7 @@
       <c>
         <v>-1</v>
       </c>
-      <c s="1">
+      <c s="3">
         <v>45444.639502314814</v>
       </c>
       <c t="s">
@@ -1737,13 +1737,13 @@
       <c t="s">
         <v>98</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="4">
         <v>0.0006018518518518519</v>
       </c>
-      <c s="1">
+      <c s="3">
         <v>45445.399351851855</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="3">
         <v>2958465.999988426</v>
       </c>
       <c r="M4" t="b">
@@ -1755,7 +1755,7 @@
       <c t="b">
         <v>0</v>
       </c>
-      <c r="Q4" s="5" t="s">
+      <c r="Q4" s="1" t="s">
         <v>87</v>
       </c>
       <c>
@@ -1767,10 +1767,10 @@
       <c>
         <v>-8</v>
       </c>
-      <c r="X4" s="1">
+      <c r="X4" s="3">
         <v>45444.639502314814</v>
       </c>
-      <c s="1">
+      <c s="3">
         <v>45444.640115740738</v>
       </c>
       <c t="s">
@@ -1788,7 +1788,7 @@
       <c s="2" t="s">
         <v>36</v>
       </c>
-      <c s="4" t="s">
+      <c s="5" t="s">
         <v>42</v>
       </c>
       <c s="2" t="s">
@@ -2003,7 +2003,7 @@
       <c>
         <v>-1</v>
       </c>
-      <c s="1">
+      <c s="3">
         <v>45444.681111111109</v>
       </c>
       <c t="s">
@@ -2012,13 +2012,13 @@
       <c t="s">
         <v>98</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="4">
         <v>0.00052083333333333333</v>
       </c>
-      <c s="1">
+      <c s="3">
         <v>45445.399375</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="3">
         <v>2958465.999988426</v>
       </c>
       <c r="M5" t="b">
@@ -2030,7 +2030,7 @@
       <c t="b">
         <v>0</v>
       </c>
-      <c r="Q5" s="5" t="s">
+      <c r="Q5" s="1" t="s">
         <v>8</v>
       </c>
       <c>
@@ -2042,10 +2042,10 @@
       <c>
         <v>-8</v>
       </c>
-      <c r="X5" s="1">
+      <c r="X5" s="3">
         <v>45444.681111111109</v>
       </c>
-      <c s="1">
+      <c s="3">
         <v>45444.681643518517</v>
       </c>
       <c t="s">
@@ -2063,7 +2063,7 @@
       <c s="2" t="s">
         <v>36</v>
       </c>
-      <c s="4" t="s">
+      <c s="5" t="s">
         <v>56</v>
       </c>
       <c s="2" t="s">
@@ -2278,7 +2278,7 @@
       <c>
         <v>-1</v>
       </c>
-      <c s="1">
+      <c s="3">
         <v>45444.747893518521</v>
       </c>
       <c t="s">
@@ -2287,13 +2287,13 @@
       <c t="s">
         <v>98</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="4">
         <v>0.00045138888888888887</v>
       </c>
-      <c s="1">
+      <c s="3">
         <v>45445.399375</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="3">
         <v>2958465.999988426</v>
       </c>
       <c r="M6" t="b">
@@ -2305,7 +2305,7 @@
       <c t="b">
         <v>0</v>
       </c>
-      <c r="Q6" s="5" t="s">
+      <c r="Q6" s="1" t="s">
         <v>114</v>
       </c>
       <c>
@@ -2317,10 +2317,10 @@
       <c>
         <v>-8</v>
       </c>
-      <c r="X6" s="1">
+      <c r="X6" s="3">
         <v>45444.747893518521</v>
       </c>
-      <c s="1">
+      <c s="3">
         <v>45444.748356481483</v>
       </c>
       <c t="s">
@@ -2338,7 +2338,7 @@
       <c s="2" t="s">
         <v>36</v>
       </c>
-      <c s="4" t="s">
+      <c s="5" t="s">
         <v>130</v>
       </c>
       <c s="2" t="s">

--- a/data-raw/bd_conteo_rapido_surveytogo.xlsx
+++ b/data-raw/bd_conteo_rapido_surveytogo.xlsx
@@ -569,11 +569,11 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1187,7 +1187,7 @@
       <c t="s">
         <v>98</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="1">
         <v>0.0069328703703703705</v>
       </c>
       <c s="3">
@@ -1205,7 +1205,7 @@
       <c t="b">
         <v>0</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="Q2" s="5" t="s">
         <v>3</v>
       </c>
       <c>
@@ -1238,7 +1238,7 @@
       <c s="2" t="s">
         <v>59</v>
       </c>
-      <c s="5" t="s">
+      <c s="4" t="s">
         <v>100</v>
       </c>
       <c s="2" t="s">
@@ -1462,7 +1462,7 @@
       <c t="s">
         <v>98</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="1">
         <v>0.00068287037037037036</v>
       </c>
       <c s="3">
@@ -1480,7 +1480,7 @@
       <c t="b">
         <v>0</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="Q3" s="5" t="s">
         <v>22</v>
       </c>
       <c>
@@ -1513,7 +1513,7 @@
       <c s="2" t="s">
         <v>36</v>
       </c>
-      <c s="5" t="s">
+      <c s="4" t="s">
         <v>24</v>
       </c>
       <c s="2" t="s">
@@ -1737,7 +1737,7 @@
       <c t="s">
         <v>98</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="1">
         <v>0.0006018518518518519</v>
       </c>
       <c s="3">
@@ -1755,7 +1755,7 @@
       <c t="b">
         <v>0</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="Q4" s="5" t="s">
         <v>87</v>
       </c>
       <c>
@@ -1788,7 +1788,7 @@
       <c s="2" t="s">
         <v>36</v>
       </c>
-      <c s="5" t="s">
+      <c s="4" t="s">
         <v>42</v>
       </c>
       <c s="2" t="s">
@@ -2012,7 +2012,7 @@
       <c t="s">
         <v>98</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="1">
         <v>0.00052083333333333333</v>
       </c>
       <c s="3">
@@ -2030,7 +2030,7 @@
       <c t="b">
         <v>0</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="Q5" s="5" t="s">
         <v>8</v>
       </c>
       <c>
@@ -2063,7 +2063,7 @@
       <c s="2" t="s">
         <v>36</v>
       </c>
-      <c s="5" t="s">
+      <c s="4" t="s">
         <v>56</v>
       </c>
       <c s="2" t="s">
@@ -2287,7 +2287,7 @@
       <c t="s">
         <v>98</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="1">
         <v>0.00045138888888888887</v>
       </c>
       <c s="3">
@@ -2305,7 +2305,7 @@
       <c t="b">
         <v>0</v>
       </c>
-      <c r="Q6" s="1" t="s">
+      <c r="Q6" s="5" t="s">
         <v>114</v>
       </c>
       <c>
@@ -2338,7 +2338,7 @@
       <c s="2" t="s">
         <v>36</v>
       </c>
-      <c s="5" t="s">
+      <c s="4" t="s">
         <v>130</v>
       </c>
       <c s="2" t="s">

--- a/data-raw/bd_conteo_rapido_surveytogo.xlsx
+++ b/data-raw/bd_conteo_rapido_surveytogo.xlsx
@@ -569,11 +569,11 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -954,220 +954,220 @@
       <c t="s">
         <v>2</v>
       </c>
-      <c s="2" t="s">
+      <c s="1" t="s">
         <v>102</v>
       </c>
-      <c s="2" t="s">
+      <c s="1" t="s">
         <v>64</v>
       </c>
-      <c s="2" t="s">
+      <c s="1" t="s">
         <v>109</v>
       </c>
-      <c s="2" t="s">
+      <c s="1" t="s">
         <v>84</v>
       </c>
-      <c s="2" t="s">
+      <c s="1" t="s">
         <v>51</v>
       </c>
-      <c s="2" t="s">
+      <c s="1" t="s">
         <v>43</v>
       </c>
-      <c s="2" t="s">
+      <c s="1" t="s">
         <v>106</v>
       </c>
-      <c s="2" t="s">
+      <c s="1" t="s">
         <v>0</v>
       </c>
-      <c s="2" t="s">
+      <c s="1" t="s">
         <v>32</v>
       </c>
-      <c s="2" t="s">
+      <c s="1" t="s">
         <v>62</v>
       </c>
-      <c s="2" t="s">
+      <c s="1" t="s">
         <v>121</v>
       </c>
-      <c s="2" t="s">
+      <c s="1" t="s">
         <v>16</v>
       </c>
-      <c s="2" t="s">
+      <c s="1" t="s">
         <v>46</v>
       </c>
-      <c s="2" t="s">
+      <c s="1" t="s">
         <v>80</v>
       </c>
-      <c s="2" t="s">
+      <c s="1" t="s">
         <v>125</v>
       </c>
-      <c s="2" t="s">
+      <c s="1" t="s">
         <v>23</v>
       </c>
-      <c s="2" t="s">
+      <c s="1" t="s">
         <v>55</v>
       </c>
-      <c s="2" t="s">
+      <c s="1" t="s">
         <v>115</v>
       </c>
-      <c s="2" t="s">
+      <c s="1" t="s">
         <v>9</v>
       </c>
-      <c s="2" t="s">
+      <c s="1" t="s">
         <v>41</v>
       </c>
-      <c s="2" t="s">
+      <c s="1" t="s">
         <v>73</v>
       </c>
-      <c s="2" t="s">
+      <c s="1" t="s">
         <v>127</v>
       </c>
-      <c s="2" t="s">
+      <c s="1" t="s">
         <v>131</v>
       </c>
-      <c s="2" t="s">
+      <c s="1" t="s">
         <v>31</v>
       </c>
-      <c s="2" t="s">
+      <c s="1" t="s">
         <v>61</v>
       </c>
-      <c s="2" t="s">
+      <c s="1" t="s">
         <v>119</v>
       </c>
-      <c s="2" t="s">
+      <c s="1" t="s">
         <v>14</v>
       </c>
-      <c s="2" t="s">
+      <c s="1" t="s">
         <v>45</v>
       </c>
-      <c s="2" t="s">
+      <c s="1" t="s">
         <v>79</v>
       </c>
-      <c s="2" t="s">
+      <c s="1" t="s">
         <v>1</v>
       </c>
-      <c s="2" t="s">
+      <c s="1" t="s">
         <v>33</v>
       </c>
-      <c s="2" t="s">
+      <c s="1" t="s">
         <v>34</v>
       </c>
-      <c s="2" t="s">
+      <c s="1" t="s">
         <v>63</v>
       </c>
-      <c s="2" t="s">
+      <c s="1" t="s">
         <v>88</v>
       </c>
-      <c s="2" t="s">
+      <c s="1" t="s">
         <v>20</v>
       </c>
-      <c s="2" t="s">
+      <c s="1" t="s">
         <v>49</v>
       </c>
-      <c s="2" t="s">
+      <c s="1" t="s">
         <v>81</v>
       </c>
-      <c s="2" t="s">
+      <c s="1" t="s">
         <v>96</v>
       </c>
-      <c s="2" t="s">
+      <c s="1" t="s">
         <v>39</v>
       </c>
-      <c s="2" t="s">
+      <c s="1" t="s">
         <v>72</v>
       </c>
-      <c s="2" t="s">
+      <c s="1" t="s">
         <v>92</v>
       </c>
-      <c s="2" t="s">
+      <c s="1" t="s">
         <v>52</v>
       </c>
-      <c s="2" t="s">
+      <c s="1" t="s">
         <v>117</v>
       </c>
-      <c s="2" t="s">
+      <c s="1" t="s">
         <v>112</v>
       </c>
-      <c s="2" t="s">
+      <c s="1" t="s">
         <v>40</v>
       </c>
-      <c s="2" t="s">
+      <c s="1" t="s">
         <v>30</v>
       </c>
-      <c s="2" t="s">
+      <c s="1" t="s">
         <v>123</v>
       </c>
-      <c s="2" t="s">
+      <c s="1" t="s">
         <v>124</v>
       </c>
-      <c s="2" t="s">
+      <c s="1" t="s">
         <v>47</v>
       </c>
-      <c s="2" t="s">
+      <c s="1" t="s">
         <v>126</v>
       </c>
-      <c s="2" t="s">
+      <c s="1" t="s">
         <v>82</v>
       </c>
-      <c s="2" t="s">
+      <c s="1" t="s">
         <v>68</v>
       </c>
-      <c s="2" t="s">
+      <c s="1" t="s">
         <v>91</v>
       </c>
-      <c s="2" t="s">
+      <c s="1" t="s">
         <v>93</v>
       </c>
-      <c s="2" t="s">
+      <c s="1" t="s">
         <v>50</v>
       </c>
-      <c s="2" t="s">
+      <c s="1" t="s">
         <v>105</v>
       </c>
-      <c s="2" t="s">
+      <c s="1" t="s">
         <v>99</v>
       </c>
-      <c s="2" t="s">
+      <c s="1" t="s">
         <v>90</v>
       </c>
-      <c s="2" t="s">
+      <c s="1" t="s">
         <v>58</v>
       </c>
-      <c s="2" t="s">
+      <c s="1" t="s">
         <v>5</v>
       </c>
-      <c s="2" t="s">
+      <c s="1" t="s">
         <v>53</v>
       </c>
-      <c s="2" t="s">
+      <c s="1" t="s">
         <v>37</v>
       </c>
-      <c s="2" t="s">
+      <c s="1" t="s">
         <v>6</v>
       </c>
-      <c s="2" t="s">
+      <c s="1" t="s">
         <v>19</v>
       </c>
-      <c s="2" t="s">
+      <c s="1" t="s">
         <v>128</v>
       </c>
-      <c s="2" t="s">
+      <c s="1" t="s">
         <v>110</v>
       </c>
-      <c s="2" t="s">
+      <c s="1" t="s">
         <v>95</v>
       </c>
-      <c s="2" t="s">
+      <c s="1" t="s">
         <v>75</v>
       </c>
-      <c s="2" t="s">
+      <c s="1" t="s">
         <v>57</v>
       </c>
-      <c s="2" t="s">
+      <c s="1" t="s">
         <v>78</v>
       </c>
-      <c s="2" t="s">
+      <c s="1" t="s">
         <v>107</v>
       </c>
-      <c s="2" t="s">
+      <c s="1" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1178,7 +1178,7 @@
       <c>
         <v>-1</v>
       </c>
-      <c s="3">
+      <c s="5">
         <v>45445.04587962963</v>
       </c>
       <c t="s">
@@ -1187,13 +1187,13 @@
       <c t="s">
         <v>98</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="2">
         <v>0.0069328703703703705</v>
       </c>
-      <c s="3">
+      <c s="5">
         <v>45445.0528125</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="5">
         <v>2958465.999988426</v>
       </c>
       <c r="M2" t="b">
@@ -1205,7 +1205,7 @@
       <c t="b">
         <v>0</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="Q2" s="3" t="s">
         <v>3</v>
       </c>
       <c>
@@ -1217,10 +1217,10 @@
       <c>
         <v>-8</v>
       </c>
-      <c r="X2" s="3">
+      <c r="X2" s="5">
         <v>45445.04587962963</v>
       </c>
-      <c s="3">
+      <c s="5">
         <v>45445.0528125</v>
       </c>
       <c t="s">
@@ -1229,220 +1229,220 @@
       <c>
         <v>-1</v>
       </c>
-      <c s="2" t="s">
+      <c s="1" t="s">
         <v>113</v>
       </c>
-      <c s="2" t="s">
+      <c s="1" t="s">
         <v>104</v>
       </c>
-      <c s="2" t="s">
+      <c s="1" t="s">
         <v>59</v>
       </c>
       <c s="4" t="s">
         <v>100</v>
       </c>
-      <c s="2" t="s">
+      <c s="1" t="s">
         <v>54</v>
       </c>
-      <c s="2" t="s">
-        <v>44</v>
-      </c>
-      <c s="2" t="s">
-        <v>44</v>
-      </c>
-      <c s="2" t="s">
-        <v>44</v>
-      </c>
-      <c s="2" t="s">
-        <v>44</v>
-      </c>
-      <c s="2" t="s">
-        <v>44</v>
-      </c>
-      <c s="2" t="s">
-        <v>44</v>
-      </c>
-      <c s="2" t="s">
-        <v>44</v>
-      </c>
-      <c s="2" t="s">
-        <v>44</v>
-      </c>
-      <c s="2" t="s">
-        <v>44</v>
-      </c>
-      <c s="2" t="s">
-        <v>44</v>
-      </c>
-      <c s="2" t="s">
-        <v>44</v>
-      </c>
-      <c s="2" t="s">
-        <v>44</v>
-      </c>
-      <c s="2" t="s">
-        <v>44</v>
-      </c>
-      <c s="2" t="s">
-        <v>44</v>
-      </c>
-      <c s="2" t="s">
-        <v>44</v>
-      </c>
-      <c s="2" t="s">
-        <v>44</v>
-      </c>
-      <c s="2" t="s">
-        <v>44</v>
-      </c>
-      <c s="2" t="s">
-        <v>44</v>
-      </c>
-      <c s="2" t="s">
-        <v>44</v>
-      </c>
-      <c s="2" t="s">
-        <v>44</v>
-      </c>
-      <c s="2" t="s">
-        <v>44</v>
-      </c>
-      <c s="2" t="s">
-        <v>44</v>
-      </c>
-      <c s="2" t="s">
-        <v>44</v>
-      </c>
-      <c s="2" t="s">
-        <v>44</v>
-      </c>
-      <c s="2" t="s">
-        <v>44</v>
-      </c>
-      <c s="2" t="s">
-        <v>44</v>
-      </c>
-      <c s="2" t="s">
-        <v>44</v>
-      </c>
-      <c s="2" t="s">
-        <v>44</v>
-      </c>
-      <c s="2" t="s">
-        <v>44</v>
-      </c>
-      <c s="2" t="s">
-        <v>44</v>
-      </c>
-      <c s="2" t="s">
-        <v>44</v>
-      </c>
-      <c s="2" t="s">
-        <v>44</v>
-      </c>
-      <c s="2" t="s">
-        <v>44</v>
-      </c>
-      <c s="2" t="s">
-        <v>44</v>
-      </c>
-      <c s="2" t="s">
-        <v>44</v>
-      </c>
-      <c s="2" t="s">
-        <v>44</v>
-      </c>
-      <c s="2" t="s">
-        <v>44</v>
-      </c>
-      <c s="2" t="s">
-        <v>44</v>
-      </c>
-      <c s="2" t="s">
-        <v>44</v>
-      </c>
-      <c s="2" t="s">
-        <v>44</v>
-      </c>
-      <c s="2" t="s">
-        <v>44</v>
-      </c>
-      <c s="2" t="s">
-        <v>44</v>
-      </c>
-      <c s="2" t="s">
-        <v>44</v>
-      </c>
-      <c s="2" t="s">
-        <v>44</v>
-      </c>
-      <c s="2" t="s">
-        <v>44</v>
-      </c>
-      <c s="2" t="s">
-        <v>44</v>
-      </c>
-      <c s="2" t="s">
-        <v>44</v>
-      </c>
-      <c s="2" t="s">
-        <v>44</v>
-      </c>
-      <c s="2" t="s">
-        <v>44</v>
-      </c>
-      <c s="2" t="s">
-        <v>44</v>
-      </c>
-      <c s="2" t="s">
-        <v>44</v>
-      </c>
-      <c s="2" t="s">
-        <v>44</v>
-      </c>
-      <c s="2" t="s">
-        <v>44</v>
-      </c>
-      <c s="2" t="s">
-        <v>44</v>
-      </c>
-      <c s="2" t="s">
-        <v>44</v>
-      </c>
-      <c s="2" t="s">
-        <v>44</v>
-      </c>
-      <c s="2" t="s">
-        <v>44</v>
-      </c>
-      <c s="2" t="s">
-        <v>44</v>
-      </c>
-      <c s="2" t="s">
-        <v>44</v>
-      </c>
-      <c s="2" t="s">
-        <v>44</v>
-      </c>
-      <c s="2" t="s">
-        <v>44</v>
-      </c>
-      <c s="2" t="s">
-        <v>44</v>
-      </c>
-      <c s="2" t="s">
-        <v>44</v>
-      </c>
-      <c s="2" t="s">
-        <v>44</v>
-      </c>
-      <c s="2" t="s">
-        <v>44</v>
-      </c>
-      <c s="2" t="s">
-        <v>44</v>
-      </c>
-      <c s="2" t="s">
+      <c s="1" t="s">
+        <v>44</v>
+      </c>
+      <c s="1" t="s">
+        <v>44</v>
+      </c>
+      <c s="1" t="s">
+        <v>44</v>
+      </c>
+      <c s="1" t="s">
+        <v>44</v>
+      </c>
+      <c s="1" t="s">
+        <v>44</v>
+      </c>
+      <c s="1" t="s">
+        <v>44</v>
+      </c>
+      <c s="1" t="s">
+        <v>44</v>
+      </c>
+      <c s="1" t="s">
+        <v>44</v>
+      </c>
+      <c s="1" t="s">
+        <v>44</v>
+      </c>
+      <c s="1" t="s">
+        <v>44</v>
+      </c>
+      <c s="1" t="s">
+        <v>44</v>
+      </c>
+      <c s="1" t="s">
+        <v>44</v>
+      </c>
+      <c s="1" t="s">
+        <v>44</v>
+      </c>
+      <c s="1" t="s">
+        <v>44</v>
+      </c>
+      <c s="1" t="s">
+        <v>44</v>
+      </c>
+      <c s="1" t="s">
+        <v>44</v>
+      </c>
+      <c s="1" t="s">
+        <v>44</v>
+      </c>
+      <c s="1" t="s">
+        <v>44</v>
+      </c>
+      <c s="1" t="s">
+        <v>44</v>
+      </c>
+      <c s="1" t="s">
+        <v>44</v>
+      </c>
+      <c s="1" t="s">
+        <v>44</v>
+      </c>
+      <c s="1" t="s">
+        <v>44</v>
+      </c>
+      <c s="1" t="s">
+        <v>44</v>
+      </c>
+      <c s="1" t="s">
+        <v>44</v>
+      </c>
+      <c s="1" t="s">
+        <v>44</v>
+      </c>
+      <c s="1" t="s">
+        <v>44</v>
+      </c>
+      <c s="1" t="s">
+        <v>44</v>
+      </c>
+      <c s="1" t="s">
+        <v>44</v>
+      </c>
+      <c s="1" t="s">
+        <v>44</v>
+      </c>
+      <c s="1" t="s">
+        <v>44</v>
+      </c>
+      <c s="1" t="s">
+        <v>44</v>
+      </c>
+      <c s="1" t="s">
+        <v>44</v>
+      </c>
+      <c s="1" t="s">
+        <v>44</v>
+      </c>
+      <c s="1" t="s">
+        <v>44</v>
+      </c>
+      <c s="1" t="s">
+        <v>44</v>
+      </c>
+      <c s="1" t="s">
+        <v>44</v>
+      </c>
+      <c s="1" t="s">
+        <v>44</v>
+      </c>
+      <c s="1" t="s">
+        <v>44</v>
+      </c>
+      <c s="1" t="s">
+        <v>44</v>
+      </c>
+      <c s="1" t="s">
+        <v>44</v>
+      </c>
+      <c s="1" t="s">
+        <v>44</v>
+      </c>
+      <c s="1" t="s">
+        <v>44</v>
+      </c>
+      <c s="1" t="s">
+        <v>44</v>
+      </c>
+      <c s="1" t="s">
+        <v>44</v>
+      </c>
+      <c s="1" t="s">
+        <v>44</v>
+      </c>
+      <c s="1" t="s">
+        <v>44</v>
+      </c>
+      <c s="1" t="s">
+        <v>44</v>
+      </c>
+      <c s="1" t="s">
+        <v>44</v>
+      </c>
+      <c s="1" t="s">
+        <v>44</v>
+      </c>
+      <c s="1" t="s">
+        <v>44</v>
+      </c>
+      <c s="1" t="s">
+        <v>44</v>
+      </c>
+      <c s="1" t="s">
+        <v>44</v>
+      </c>
+      <c s="1" t="s">
+        <v>44</v>
+      </c>
+      <c s="1" t="s">
+        <v>44</v>
+      </c>
+      <c s="1" t="s">
+        <v>44</v>
+      </c>
+      <c s="1" t="s">
+        <v>44</v>
+      </c>
+      <c s="1" t="s">
+        <v>44</v>
+      </c>
+      <c s="1" t="s">
+        <v>44</v>
+      </c>
+      <c s="1" t="s">
+        <v>44</v>
+      </c>
+      <c s="1" t="s">
+        <v>44</v>
+      </c>
+      <c s="1" t="s">
+        <v>44</v>
+      </c>
+      <c s="1" t="s">
+        <v>44</v>
+      </c>
+      <c s="1" t="s">
+        <v>44</v>
+      </c>
+      <c s="1" t="s">
+        <v>44</v>
+      </c>
+      <c s="1" t="s">
+        <v>44</v>
+      </c>
+      <c s="1" t="s">
+        <v>44</v>
+      </c>
+      <c s="1" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1453,7 +1453,7 @@
       <c>
         <v>-1</v>
       </c>
-      <c s="3">
+      <c s="5">
         <v>45444.628564814811</v>
       </c>
       <c t="s">
@@ -1462,13 +1462,13 @@
       <c t="s">
         <v>98</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="2">
         <v>0.00068287037037037036</v>
       </c>
-      <c s="3">
+      <c s="5">
         <v>45445.399351851855</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="5">
         <v>2958465.999988426</v>
       </c>
       <c r="M3" t="b">
@@ -1480,7 +1480,7 @@
       <c t="b">
         <v>0</v>
       </c>
-      <c r="Q3" s="5" t="s">
+      <c r="Q3" s="3" t="s">
         <v>22</v>
       </c>
       <c>
@@ -1492,10 +1492,10 @@
       <c>
         <v>-8</v>
       </c>
-      <c r="X3" s="3">
+      <c r="X3" s="5">
         <v>45444.628564814811</v>
       </c>
-      <c s="3">
+      <c s="5">
         <v>45444.629247685189</v>
       </c>
       <c t="s">
@@ -1504,220 +1504,220 @@
       <c>
         <v>-1</v>
       </c>
-      <c s="2" t="s">
+      <c s="1" t="s">
         <v>22</v>
       </c>
-      <c s="2" t="s">
+      <c s="1" t="s">
         <v>38</v>
       </c>
-      <c s="2" t="s">
+      <c s="1" t="s">
         <v>36</v>
       </c>
       <c s="4" t="s">
         <v>24</v>
       </c>
-      <c s="2" t="s">
+      <c s="1" t="s">
         <v>35</v>
       </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
         <v>13</v>
       </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
         <v>13</v>
       </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       <c>
         <v>-1</v>
       </c>
-      <c s="3">
+      <c s="5">
         <v>45444.639502314814</v>
       </c>
       <c t="s">
@@ -1737,13 +1737,13 @@
       <c t="s">
         <v>98</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="2">
         <v>0.0006018518518518519</v>
       </c>
-      <c s="3">
+      <c s="5">
         <v>45445.399351851855</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="5">
         <v>2958465.999988426</v>
       </c>
       <c r="M4" t="b">
@@ -1755,7 +1755,7 @@
       <c t="b">
         <v>0</v>
       </c>
-      <c r="Q4" s="5" t="s">
+      <c r="Q4" s="3" t="s">
         <v>87</v>
       </c>
       <c>
@@ -1767,10 +1767,10 @@
       <c>
         <v>-8</v>
       </c>
-      <c r="X4" s="3">
+      <c r="X4" s="5">
         <v>45444.639502314814</v>
       </c>
-      <c s="3">
+      <c s="5">
         <v>45444.640115740738</v>
       </c>
       <c t="s">
@@ -1779,220 +1779,220 @@
       <c>
         <v>-1</v>
       </c>
-      <c s="2" t="s">
+      <c s="1" t="s">
         <v>12</v>
       </c>
-      <c s="2" t="s">
+      <c s="1" t="s">
         <v>108</v>
       </c>
-      <c s="2" t="s">
+      <c s="1" t="s">
         <v>36</v>
       </c>
       <c s="4" t="s">
         <v>42</v>
       </c>
-      <c s="2" t="s">
+      <c s="1" t="s">
         <v>4</v>
       </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
         <v>13</v>
       </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
         <v>13</v>
       </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2003,7 +2003,7 @@
       <c>
         <v>-1</v>
       </c>
-      <c s="3">
+      <c s="5">
         <v>45444.681111111109</v>
       </c>
       <c t="s">
@@ -2012,13 +2012,13 @@
       <c t="s">
         <v>98</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="2">
         <v>0.00052083333333333333</v>
       </c>
-      <c s="3">
+      <c s="5">
         <v>45445.399375</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="5">
         <v>2958465.999988426</v>
       </c>
       <c r="M5" t="b">
@@ -2030,7 +2030,7 @@
       <c t="b">
         <v>0</v>
       </c>
-      <c r="Q5" s="5" t="s">
+      <c r="Q5" s="3" t="s">
         <v>8</v>
       </c>
       <c>
@@ -2042,10 +2042,10 @@
       <c>
         <v>-8</v>
       </c>
-      <c r="X5" s="3">
+      <c r="X5" s="5">
         <v>45444.681111111109</v>
       </c>
-      <c s="3">
+      <c s="5">
         <v>45444.681643518517</v>
       </c>
       <c t="s">
@@ -2054,220 +2054,220 @@
       <c>
         <v>-1</v>
       </c>
-      <c s="2" t="s">
+      <c s="1" t="s">
         <v>26</v>
       </c>
-      <c s="2" t="s">
+      <c s="1" t="s">
         <v>65</v>
       </c>
-      <c s="2" t="s">
+      <c s="1" t="s">
         <v>36</v>
       </c>
       <c s="4" t="s">
         <v>56</v>
       </c>
-      <c s="2" t="s">
+      <c s="1" t="s">
         <v>66</v>
       </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
         <v>13</v>
       </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
         <v>13</v>
       </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2278,7 +2278,7 @@
       <c>
         <v>-1</v>
       </c>
-      <c s="3">
+      <c s="5">
         <v>45444.747893518521</v>
       </c>
       <c t="s">
@@ -2287,13 +2287,13 @@
       <c t="s">
         <v>98</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="2">
         <v>0.00045138888888888887</v>
       </c>
-      <c s="3">
+      <c s="5">
         <v>45445.399375</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="5">
         <v>2958465.999988426</v>
       </c>
       <c r="M6" t="b">
@@ -2305,7 +2305,7 @@
       <c t="b">
         <v>0</v>
       </c>
-      <c r="Q6" s="5" t="s">
+      <c r="Q6" s="3" t="s">
         <v>114</v>
       </c>
       <c>
@@ -2317,10 +2317,10 @@
       <c>
         <v>-8</v>
       </c>
-      <c r="X6" s="3">
+      <c r="X6" s="5">
         <v>45444.747893518521</v>
       </c>
-      <c s="3">
+      <c s="5">
         <v>45444.748356481483</v>
       </c>
       <c t="s">
@@ -2329,220 +2329,220 @@
       <c>
         <v>-1</v>
       </c>
-      <c s="2" t="s">
+      <c s="1" t="s">
         <v>114</v>
       </c>
-      <c s="2" t="s">
+      <c s="1" t="s">
         <v>83</v>
       </c>
-      <c s="2" t="s">
+      <c s="1" t="s">
         <v>36</v>
       </c>
       <c s="4" t="s">
         <v>130</v>
       </c>
-      <c s="2" t="s">
+      <c s="1" t="s">
         <v>54</v>
       </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
         <v>13</v>
       </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
         <v>13</v>
       </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-      <c s="2" t="s">
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
+        <v>77</v>
+      </c>
+      <c s="1" t="s">
         <v>70</v>
       </c>
     </row>

--- a/data-raw/bd_conteo_rapido_surveytogo.xlsx
+++ b/data-raw/bd_conteo_rapido_surveytogo.xlsx
@@ -570,10 +570,10 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1178,7 +1178,7 @@
       <c>
         <v>-1</v>
       </c>
-      <c s="5">
+      <c s="2">
         <v>45445.04587962963</v>
       </c>
       <c t="s">
@@ -1187,13 +1187,13 @@
       <c t="s">
         <v>98</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="5">
         <v>0.0069328703703703705</v>
       </c>
-      <c s="5">
+      <c s="2">
         <v>45445.0528125</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="2">
         <v>2958465.999988426</v>
       </c>
       <c r="M2" t="b">
@@ -1217,10 +1217,10 @@
       <c>
         <v>-8</v>
       </c>
-      <c r="X2" s="5">
+      <c r="X2" s="2">
         <v>45445.04587962963</v>
       </c>
-      <c s="5">
+      <c s="2">
         <v>45445.0528125</v>
       </c>
       <c t="s">
@@ -1453,7 +1453,7 @@
       <c>
         <v>-1</v>
       </c>
-      <c s="5">
+      <c s="2">
         <v>45444.628564814811</v>
       </c>
       <c t="s">
@@ -1462,13 +1462,13 @@
       <c t="s">
         <v>98</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="5">
         <v>0.00068287037037037036</v>
       </c>
-      <c s="5">
+      <c s="2">
         <v>45445.399351851855</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="2">
         <v>2958465.999988426</v>
       </c>
       <c r="M3" t="b">
@@ -1492,10 +1492,10 @@
       <c>
         <v>-8</v>
       </c>
-      <c r="X3" s="5">
+      <c r="X3" s="2">
         <v>45444.628564814811</v>
       </c>
-      <c s="5">
+      <c s="2">
         <v>45444.629247685189</v>
       </c>
       <c t="s">
@@ -1728,7 +1728,7 @@
       <c>
         <v>-1</v>
       </c>
-      <c s="5">
+      <c s="2">
         <v>45444.639502314814</v>
       </c>
       <c t="s">
@@ -1737,13 +1737,13 @@
       <c t="s">
         <v>98</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="5">
         <v>0.0006018518518518519</v>
       </c>
-      <c s="5">
+      <c s="2">
         <v>45445.399351851855</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="2">
         <v>2958465.999988426</v>
       </c>
       <c r="M4" t="b">
@@ -1767,10 +1767,10 @@
       <c>
         <v>-8</v>
       </c>
-      <c r="X4" s="5">
+      <c r="X4" s="2">
         <v>45444.639502314814</v>
       </c>
-      <c s="5">
+      <c s="2">
         <v>45444.640115740738</v>
       </c>
       <c t="s">
@@ -2003,7 +2003,7 @@
       <c>
         <v>-1</v>
       </c>
-      <c s="5">
+      <c s="2">
         <v>45444.681111111109</v>
       </c>
       <c t="s">
@@ -2012,13 +2012,13 @@
       <c t="s">
         <v>98</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="5">
         <v>0.00052083333333333333</v>
       </c>
-      <c s="5">
+      <c s="2">
         <v>45445.399375</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="2">
         <v>2958465.999988426</v>
       </c>
       <c r="M5" t="b">
@@ -2042,10 +2042,10 @@
       <c>
         <v>-8</v>
       </c>
-      <c r="X5" s="5">
+      <c r="X5" s="2">
         <v>45444.681111111109</v>
       </c>
-      <c s="5">
+      <c s="2">
         <v>45444.681643518517</v>
       </c>
       <c t="s">
@@ -2278,7 +2278,7 @@
       <c>
         <v>-1</v>
       </c>
-      <c s="5">
+      <c s="2">
         <v>45444.747893518521</v>
       </c>
       <c t="s">
@@ -2287,13 +2287,13 @@
       <c t="s">
         <v>98</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="5">
         <v>0.00045138888888888887</v>
       </c>
-      <c s="5">
+      <c s="2">
         <v>45445.399375</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="2">
         <v>2958465.999988426</v>
       </c>
       <c r="M6" t="b">
@@ -2317,10 +2317,10 @@
       <c>
         <v>-8</v>
       </c>
-      <c r="X6" s="5">
+      <c r="X6" s="2">
         <v>45444.747893518521</v>
       </c>
-      <c s="5">
+      <c s="2">
         <v>45444.748356481483</v>
       </c>
       <c t="s">

--- a/data-raw/bd_conteo_rapido_surveytogo.xlsx
+++ b/data-raw/bd_conteo_rapido_surveytogo.xlsx
@@ -569,11 +569,11 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -954,220 +954,220 @@
       <c t="s">
         <v>2</v>
       </c>
-      <c s="1" t="s">
+      <c s="5" t="s">
         <v>102</v>
       </c>
-      <c s="1" t="s">
+      <c s="5" t="s">
         <v>64</v>
       </c>
-      <c s="1" t="s">
+      <c s="5" t="s">
         <v>109</v>
       </c>
-      <c s="1" t="s">
+      <c s="5" t="s">
         <v>84</v>
       </c>
-      <c s="1" t="s">
+      <c s="5" t="s">
         <v>51</v>
       </c>
-      <c s="1" t="s">
+      <c s="5" t="s">
         <v>43</v>
       </c>
-      <c s="1" t="s">
+      <c s="5" t="s">
         <v>106</v>
       </c>
-      <c s="1" t="s">
+      <c s="5" t="s">
         <v>0</v>
       </c>
-      <c s="1" t="s">
+      <c s="5" t="s">
         <v>32</v>
       </c>
-      <c s="1" t="s">
+      <c s="5" t="s">
         <v>62</v>
       </c>
-      <c s="1" t="s">
+      <c s="5" t="s">
         <v>121</v>
       </c>
-      <c s="1" t="s">
+      <c s="5" t="s">
         <v>16</v>
       </c>
-      <c s="1" t="s">
+      <c s="5" t="s">
         <v>46</v>
       </c>
-      <c s="1" t="s">
+      <c s="5" t="s">
         <v>80</v>
       </c>
-      <c s="1" t="s">
+      <c s="5" t="s">
         <v>125</v>
       </c>
-      <c s="1" t="s">
+      <c s="5" t="s">
         <v>23</v>
       </c>
-      <c s="1" t="s">
+      <c s="5" t="s">
         <v>55</v>
       </c>
-      <c s="1" t="s">
+      <c s="5" t="s">
         <v>115</v>
       </c>
-      <c s="1" t="s">
+      <c s="5" t="s">
         <v>9</v>
       </c>
-      <c s="1" t="s">
+      <c s="5" t="s">
         <v>41</v>
       </c>
-      <c s="1" t="s">
+      <c s="5" t="s">
         <v>73</v>
       </c>
-      <c s="1" t="s">
+      <c s="5" t="s">
         <v>127</v>
       </c>
-      <c s="1" t="s">
+      <c s="5" t="s">
         <v>131</v>
       </c>
-      <c s="1" t="s">
+      <c s="5" t="s">
         <v>31</v>
       </c>
-      <c s="1" t="s">
+      <c s="5" t="s">
         <v>61</v>
       </c>
-      <c s="1" t="s">
+      <c s="5" t="s">
         <v>119</v>
       </c>
-      <c s="1" t="s">
+      <c s="5" t="s">
         <v>14</v>
       </c>
-      <c s="1" t="s">
+      <c s="5" t="s">
         <v>45</v>
       </c>
-      <c s="1" t="s">
+      <c s="5" t="s">
         <v>79</v>
       </c>
-      <c s="1" t="s">
+      <c s="5" t="s">
         <v>1</v>
       </c>
-      <c s="1" t="s">
+      <c s="5" t="s">
         <v>33</v>
       </c>
-      <c s="1" t="s">
+      <c s="5" t="s">
         <v>34</v>
       </c>
-      <c s="1" t="s">
+      <c s="5" t="s">
         <v>63</v>
       </c>
-      <c s="1" t="s">
+      <c s="5" t="s">
         <v>88</v>
       </c>
-      <c s="1" t="s">
+      <c s="5" t="s">
         <v>20</v>
       </c>
-      <c s="1" t="s">
+      <c s="5" t="s">
         <v>49</v>
       </c>
-      <c s="1" t="s">
+      <c s="5" t="s">
         <v>81</v>
       </c>
-      <c s="1" t="s">
+      <c s="5" t="s">
         <v>96</v>
       </c>
-      <c s="1" t="s">
+      <c s="5" t="s">
         <v>39</v>
       </c>
-      <c s="1" t="s">
+      <c s="5" t="s">
         <v>72</v>
       </c>
-      <c s="1" t="s">
+      <c s="5" t="s">
         <v>92</v>
       </c>
-      <c s="1" t="s">
+      <c s="5" t="s">
         <v>52</v>
       </c>
-      <c s="1" t="s">
+      <c s="5" t="s">
         <v>117</v>
       </c>
-      <c s="1" t="s">
+      <c s="5" t="s">
         <v>112</v>
       </c>
-      <c s="1" t="s">
+      <c s="5" t="s">
         <v>40</v>
       </c>
-      <c s="1" t="s">
+      <c s="5" t="s">
         <v>30</v>
       </c>
-      <c s="1" t="s">
+      <c s="5" t="s">
         <v>123</v>
       </c>
-      <c s="1" t="s">
+      <c s="5" t="s">
         <v>124</v>
       </c>
-      <c s="1" t="s">
+      <c s="5" t="s">
         <v>47</v>
       </c>
-      <c s="1" t="s">
+      <c s="5" t="s">
         <v>126</v>
       </c>
-      <c s="1" t="s">
+      <c s="5" t="s">
         <v>82</v>
       </c>
-      <c s="1" t="s">
+      <c s="5" t="s">
         <v>68</v>
       </c>
-      <c s="1" t="s">
+      <c s="5" t="s">
         <v>91</v>
       </c>
-      <c s="1" t="s">
+      <c s="5" t="s">
         <v>93</v>
       </c>
-      <c s="1" t="s">
+      <c s="5" t="s">
         <v>50</v>
       </c>
-      <c s="1" t="s">
+      <c s="5" t="s">
         <v>105</v>
       </c>
-      <c s="1" t="s">
+      <c s="5" t="s">
         <v>99</v>
       </c>
-      <c s="1" t="s">
+      <c s="5" t="s">
         <v>90</v>
       </c>
-      <c s="1" t="s">
+      <c s="5" t="s">
         <v>58</v>
       </c>
-      <c s="1" t="s">
+      <c s="5" t="s">
         <v>5</v>
       </c>
-      <c s="1" t="s">
+      <c s="5" t="s">
         <v>53</v>
       </c>
-      <c s="1" t="s">
+      <c s="5" t="s">
         <v>37</v>
       </c>
-      <c s="1" t="s">
+      <c s="5" t="s">
         <v>6</v>
       </c>
-      <c s="1" t="s">
+      <c s="5" t="s">
         <v>19</v>
       </c>
-      <c s="1" t="s">
+      <c s="5" t="s">
         <v>128</v>
       </c>
-      <c s="1" t="s">
+      <c s="5" t="s">
         <v>110</v>
       </c>
-      <c s="1" t="s">
+      <c s="5" t="s">
         <v>95</v>
       </c>
-      <c s="1" t="s">
+      <c s="5" t="s">
         <v>75</v>
       </c>
-      <c s="1" t="s">
+      <c s="5" t="s">
         <v>57</v>
       </c>
-      <c s="1" t="s">
+      <c s="5" t="s">
         <v>78</v>
       </c>
-      <c s="1" t="s">
+      <c s="5" t="s">
         <v>107</v>
       </c>
-      <c s="1" t="s">
+      <c s="5" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1178,7 +1178,7 @@
       <c>
         <v>-1</v>
       </c>
-      <c s="2">
+      <c s="4">
         <v>45445.04587962963</v>
       </c>
       <c t="s">
@@ -1187,13 +1187,13 @@
       <c t="s">
         <v>98</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="3">
         <v>0.0069328703703703705</v>
       </c>
-      <c s="2">
+      <c s="4">
         <v>45445.0528125</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="4">
         <v>2958465.999988426</v>
       </c>
       <c r="M2" t="b">
@@ -1205,7 +1205,7 @@
       <c t="b">
         <v>0</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="Q2" s="2" t="s">
         <v>3</v>
       </c>
       <c>
@@ -1217,10 +1217,10 @@
       <c>
         <v>-8</v>
       </c>
-      <c r="X2" s="2">
+      <c r="X2" s="4">
         <v>45445.04587962963</v>
       </c>
-      <c s="2">
+      <c s="4">
         <v>45445.0528125</v>
       </c>
       <c t="s">
@@ -1229,220 +1229,220 @@
       <c>
         <v>-1</v>
       </c>
+      <c s="5" t="s">
+        <v>113</v>
+      </c>
+      <c s="5" t="s">
+        <v>104</v>
+      </c>
+      <c s="5" t="s">
+        <v>59</v>
+      </c>
       <c s="1" t="s">
-        <v>113</v>
-      </c>
-      <c s="1" t="s">
-        <v>104</v>
-      </c>
-      <c s="1" t="s">
-        <v>59</v>
-      </c>
-      <c s="4" t="s">
         <v>100</v>
       </c>
-      <c s="1" t="s">
+      <c s="5" t="s">
         <v>54</v>
       </c>
-      <c s="1" t="s">
-        <v>44</v>
-      </c>
-      <c s="1" t="s">
-        <v>44</v>
-      </c>
-      <c s="1" t="s">
-        <v>44</v>
-      </c>
-      <c s="1" t="s">
-        <v>44</v>
-      </c>
-      <c s="1" t="s">
-        <v>44</v>
-      </c>
-      <c s="1" t="s">
-        <v>44</v>
-      </c>
-      <c s="1" t="s">
-        <v>44</v>
-      </c>
-      <c s="1" t="s">
-        <v>44</v>
-      </c>
-      <c s="1" t="s">
-        <v>44</v>
-      </c>
-      <c s="1" t="s">
-        <v>44</v>
-      </c>
-      <c s="1" t="s">
-        <v>44</v>
-      </c>
-      <c s="1" t="s">
-        <v>44</v>
-      </c>
-      <c s="1" t="s">
-        <v>44</v>
-      </c>
-      <c s="1" t="s">
-        <v>44</v>
-      </c>
-      <c s="1" t="s">
-        <v>44</v>
-      </c>
-      <c s="1" t="s">
-        <v>44</v>
-      </c>
-      <c s="1" t="s">
-        <v>44</v>
-      </c>
-      <c s="1" t="s">
-        <v>44</v>
-      </c>
-      <c s="1" t="s">
-        <v>44</v>
-      </c>
-      <c s="1" t="s">
-        <v>44</v>
-      </c>
-      <c s="1" t="s">
-        <v>44</v>
-      </c>
-      <c s="1" t="s">
-        <v>44</v>
-      </c>
-      <c s="1" t="s">
-        <v>44</v>
-      </c>
-      <c s="1" t="s">
-        <v>44</v>
-      </c>
-      <c s="1" t="s">
-        <v>44</v>
-      </c>
-      <c s="1" t="s">
-        <v>44</v>
-      </c>
-      <c s="1" t="s">
-        <v>44</v>
-      </c>
-      <c s="1" t="s">
-        <v>44</v>
-      </c>
-      <c s="1" t="s">
-        <v>44</v>
-      </c>
-      <c s="1" t="s">
-        <v>44</v>
-      </c>
-      <c s="1" t="s">
-        <v>44</v>
-      </c>
-      <c s="1" t="s">
-        <v>44</v>
-      </c>
-      <c s="1" t="s">
-        <v>44</v>
-      </c>
-      <c s="1" t="s">
-        <v>44</v>
-      </c>
-      <c s="1" t="s">
-        <v>44</v>
-      </c>
-      <c s="1" t="s">
-        <v>44</v>
-      </c>
-      <c s="1" t="s">
-        <v>44</v>
-      </c>
-      <c s="1" t="s">
-        <v>44</v>
-      </c>
-      <c s="1" t="s">
-        <v>44</v>
-      </c>
-      <c s="1" t="s">
-        <v>44</v>
-      </c>
-      <c s="1" t="s">
-        <v>44</v>
-      </c>
-      <c s="1" t="s">
-        <v>44</v>
-      </c>
-      <c s="1" t="s">
-        <v>44</v>
-      </c>
-      <c s="1" t="s">
-        <v>44</v>
-      </c>
-      <c s="1" t="s">
-        <v>44</v>
-      </c>
-      <c s="1" t="s">
-        <v>44</v>
-      </c>
-      <c s="1" t="s">
-        <v>44</v>
-      </c>
-      <c s="1" t="s">
-        <v>44</v>
-      </c>
-      <c s="1" t="s">
-        <v>44</v>
-      </c>
-      <c s="1" t="s">
-        <v>44</v>
-      </c>
-      <c s="1" t="s">
-        <v>44</v>
-      </c>
-      <c s="1" t="s">
-        <v>44</v>
-      </c>
-      <c s="1" t="s">
-        <v>44</v>
-      </c>
-      <c s="1" t="s">
-        <v>44</v>
-      </c>
-      <c s="1" t="s">
-        <v>44</v>
-      </c>
-      <c s="1" t="s">
-        <v>44</v>
-      </c>
-      <c s="1" t="s">
-        <v>44</v>
-      </c>
-      <c s="1" t="s">
-        <v>44</v>
-      </c>
-      <c s="1" t="s">
-        <v>44</v>
-      </c>
-      <c s="1" t="s">
-        <v>44</v>
-      </c>
-      <c s="1" t="s">
-        <v>44</v>
-      </c>
-      <c s="1" t="s">
-        <v>44</v>
-      </c>
-      <c s="1" t="s">
-        <v>44</v>
-      </c>
-      <c s="1" t="s">
-        <v>44</v>
-      </c>
-      <c s="1" t="s">
-        <v>44</v>
-      </c>
-      <c s="1" t="s">
-        <v>44</v>
-      </c>
-      <c s="1" t="s">
+      <c s="5" t="s">
+        <v>44</v>
+      </c>
+      <c s="5" t="s">
+        <v>44</v>
+      </c>
+      <c s="5" t="s">
+        <v>44</v>
+      </c>
+      <c s="5" t="s">
+        <v>44</v>
+      </c>
+      <c s="5" t="s">
+        <v>44</v>
+      </c>
+      <c s="5" t="s">
+        <v>44</v>
+      </c>
+      <c s="5" t="s">
+        <v>44</v>
+      </c>
+      <c s="5" t="s">
+        <v>44</v>
+      </c>
+      <c s="5" t="s">
+        <v>44</v>
+      </c>
+      <c s="5" t="s">
+        <v>44</v>
+      </c>
+      <c s="5" t="s">
+        <v>44</v>
+      </c>
+      <c s="5" t="s">
+        <v>44</v>
+      </c>
+      <c s="5" t="s">
+        <v>44</v>
+      </c>
+      <c s="5" t="s">
+        <v>44</v>
+      </c>
+      <c s="5" t="s">
+        <v>44</v>
+      </c>
+      <c s="5" t="s">
+        <v>44</v>
+      </c>
+      <c s="5" t="s">
+        <v>44</v>
+      </c>
+      <c s="5" t="s">
+        <v>44</v>
+      </c>
+      <c s="5" t="s">
+        <v>44</v>
+      </c>
+      <c s="5" t="s">
+        <v>44</v>
+      </c>
+      <c s="5" t="s">
+        <v>44</v>
+      </c>
+      <c s="5" t="s">
+        <v>44</v>
+      </c>
+      <c s="5" t="s">
+        <v>44</v>
+      </c>
+      <c s="5" t="s">
+        <v>44</v>
+      </c>
+      <c s="5" t="s">
+        <v>44</v>
+      </c>
+      <c s="5" t="s">
+        <v>44</v>
+      </c>
+      <c s="5" t="s">
+        <v>44</v>
+      </c>
+      <c s="5" t="s">
+        <v>44</v>
+      </c>
+      <c s="5" t="s">
+        <v>44</v>
+      </c>
+      <c s="5" t="s">
+        <v>44</v>
+      </c>
+      <c s="5" t="s">
+        <v>44</v>
+      </c>
+      <c s="5" t="s">
+        <v>44</v>
+      </c>
+      <c s="5" t="s">
+        <v>44</v>
+      </c>
+      <c s="5" t="s">
+        <v>44</v>
+      </c>
+      <c s="5" t="s">
+        <v>44</v>
+      </c>
+      <c s="5" t="s">
+        <v>44</v>
+      </c>
+      <c s="5" t="s">
+        <v>44</v>
+      </c>
+      <c s="5" t="s">
+        <v>44</v>
+      </c>
+      <c s="5" t="s">
+        <v>44</v>
+      </c>
+      <c s="5" t="s">
+        <v>44</v>
+      </c>
+      <c s="5" t="s">
+        <v>44</v>
+      </c>
+      <c s="5" t="s">
+        <v>44</v>
+      </c>
+      <c s="5" t="s">
+        <v>44</v>
+      </c>
+      <c s="5" t="s">
+        <v>44</v>
+      </c>
+      <c s="5" t="s">
+        <v>44</v>
+      </c>
+      <c s="5" t="s">
+        <v>44</v>
+      </c>
+      <c s="5" t="s">
+        <v>44</v>
+      </c>
+      <c s="5" t="s">
+        <v>44</v>
+      </c>
+      <c s="5" t="s">
+        <v>44</v>
+      </c>
+      <c s="5" t="s">
+        <v>44</v>
+      </c>
+      <c s="5" t="s">
+        <v>44</v>
+      </c>
+      <c s="5" t="s">
+        <v>44</v>
+      </c>
+      <c s="5" t="s">
+        <v>44</v>
+      </c>
+      <c s="5" t="s">
+        <v>44</v>
+      </c>
+      <c s="5" t="s">
+        <v>44</v>
+      </c>
+      <c s="5" t="s">
+        <v>44</v>
+      </c>
+      <c s="5" t="s">
+        <v>44</v>
+      </c>
+      <c s="5" t="s">
+        <v>44</v>
+      </c>
+      <c s="5" t="s">
+        <v>44</v>
+      </c>
+      <c s="5" t="s">
+        <v>44</v>
+      </c>
+      <c s="5" t="s">
+        <v>44</v>
+      </c>
+      <c s="5" t="s">
+        <v>44</v>
+      </c>
+      <c s="5" t="s">
+        <v>44</v>
+      </c>
+      <c s="5" t="s">
+        <v>44</v>
+      </c>
+      <c s="5" t="s">
+        <v>44</v>
+      </c>
+      <c s="5" t="s">
+        <v>44</v>
+      </c>
+      <c s="5" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1453,7 +1453,7 @@
       <c>
         <v>-1</v>
       </c>
-      <c s="2">
+      <c s="4">
         <v>45444.628564814811</v>
       </c>
       <c t="s">
@@ -1462,13 +1462,13 @@
       <c t="s">
         <v>98</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="3">
         <v>0.00068287037037037036</v>
       </c>
-      <c s="2">
+      <c s="4">
         <v>45445.399351851855</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="4">
         <v>2958465.999988426</v>
       </c>
       <c r="M3" t="b">
@@ -1480,7 +1480,7 @@
       <c t="b">
         <v>0</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="Q3" s="2" t="s">
         <v>22</v>
       </c>
       <c>
@@ -1492,10 +1492,10 @@
       <c>
         <v>-8</v>
       </c>
-      <c r="X3" s="2">
+      <c r="X3" s="4">
         <v>45444.628564814811</v>
       </c>
-      <c s="2">
+      <c s="4">
         <v>45444.629247685189</v>
       </c>
       <c t="s">
@@ -1504,220 +1504,220 @@
       <c>
         <v>-1</v>
       </c>
+      <c s="5" t="s">
+        <v>22</v>
+      </c>
+      <c s="5" t="s">
+        <v>38</v>
+      </c>
+      <c s="5" t="s">
+        <v>36</v>
+      </c>
       <c s="1" t="s">
-        <v>22</v>
-      </c>
-      <c s="1" t="s">
-        <v>38</v>
-      </c>
-      <c s="1" t="s">
-        <v>36</v>
-      </c>
-      <c s="4" t="s">
         <v>24</v>
       </c>
-      <c s="1" t="s">
+      <c s="5" t="s">
         <v>35</v>
       </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
         <v>13</v>
       </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
         <v>13</v>
       </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       <c>
         <v>-1</v>
       </c>
-      <c s="2">
+      <c s="4">
         <v>45444.639502314814</v>
       </c>
       <c t="s">
@@ -1737,13 +1737,13 @@
       <c t="s">
         <v>98</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="3">
         <v>0.0006018518518518519</v>
       </c>
-      <c s="2">
+      <c s="4">
         <v>45445.399351851855</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="4">
         <v>2958465.999988426</v>
       </c>
       <c r="M4" t="b">
@@ -1755,7 +1755,7 @@
       <c t="b">
         <v>0</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="Q4" s="2" t="s">
         <v>87</v>
       </c>
       <c>
@@ -1767,10 +1767,10 @@
       <c>
         <v>-8</v>
       </c>
-      <c r="X4" s="2">
+      <c r="X4" s="4">
         <v>45444.639502314814</v>
       </c>
-      <c s="2">
+      <c s="4">
         <v>45444.640115740738</v>
       </c>
       <c t="s">
@@ -1779,220 +1779,220 @@
       <c>
         <v>-1</v>
       </c>
+      <c s="5" t="s">
+        <v>12</v>
+      </c>
+      <c s="5" t="s">
+        <v>108</v>
+      </c>
+      <c s="5" t="s">
+        <v>36</v>
+      </c>
       <c s="1" t="s">
-        <v>12</v>
-      </c>
-      <c s="1" t="s">
-        <v>108</v>
-      </c>
-      <c s="1" t="s">
-        <v>36</v>
-      </c>
-      <c s="4" t="s">
         <v>42</v>
       </c>
-      <c s="1" t="s">
+      <c s="5" t="s">
         <v>4</v>
       </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
         <v>13</v>
       </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
         <v>13</v>
       </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2003,7 +2003,7 @@
       <c>
         <v>-1</v>
       </c>
-      <c s="2">
+      <c s="4">
         <v>45444.681111111109</v>
       </c>
       <c t="s">
@@ -2012,13 +2012,13 @@
       <c t="s">
         <v>98</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="3">
         <v>0.00052083333333333333</v>
       </c>
-      <c s="2">
+      <c s="4">
         <v>45445.399375</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="4">
         <v>2958465.999988426</v>
       </c>
       <c r="M5" t="b">
@@ -2030,7 +2030,7 @@
       <c t="b">
         <v>0</v>
       </c>
-      <c r="Q5" s="3" t="s">
+      <c r="Q5" s="2" t="s">
         <v>8</v>
       </c>
       <c>
@@ -2042,10 +2042,10 @@
       <c>
         <v>-8</v>
       </c>
-      <c r="X5" s="2">
+      <c r="X5" s="4">
         <v>45444.681111111109</v>
       </c>
-      <c s="2">
+      <c s="4">
         <v>45444.681643518517</v>
       </c>
       <c t="s">
@@ -2054,220 +2054,220 @@
       <c>
         <v>-1</v>
       </c>
+      <c s="5" t="s">
+        <v>26</v>
+      </c>
+      <c s="5" t="s">
+        <v>65</v>
+      </c>
+      <c s="5" t="s">
+        <v>36</v>
+      </c>
       <c s="1" t="s">
-        <v>26</v>
-      </c>
-      <c s="1" t="s">
-        <v>65</v>
-      </c>
-      <c s="1" t="s">
-        <v>36</v>
-      </c>
-      <c s="4" t="s">
         <v>56</v>
       </c>
-      <c s="1" t="s">
+      <c s="5" t="s">
         <v>66</v>
       </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
         <v>13</v>
       </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
         <v>13</v>
       </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2278,7 +2278,7 @@
       <c>
         <v>-1</v>
       </c>
-      <c s="2">
+      <c s="4">
         <v>45444.747893518521</v>
       </c>
       <c t="s">
@@ -2287,13 +2287,13 @@
       <c t="s">
         <v>98</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="3">
         <v>0.00045138888888888887</v>
       </c>
-      <c s="2">
+      <c s="4">
         <v>45445.399375</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="4">
         <v>2958465.999988426</v>
       </c>
       <c r="M6" t="b">
@@ -2305,7 +2305,7 @@
       <c t="b">
         <v>0</v>
       </c>
-      <c r="Q6" s="3" t="s">
+      <c r="Q6" s="2" t="s">
         <v>114</v>
       </c>
       <c>
@@ -2317,10 +2317,10 @@
       <c>
         <v>-8</v>
       </c>
-      <c r="X6" s="2">
+      <c r="X6" s="4">
         <v>45444.747893518521</v>
       </c>
-      <c s="2">
+      <c s="4">
         <v>45444.748356481483</v>
       </c>
       <c t="s">
@@ -2329,220 +2329,220 @@
       <c>
         <v>-1</v>
       </c>
+      <c s="5" t="s">
+        <v>114</v>
+      </c>
+      <c s="5" t="s">
+        <v>83</v>
+      </c>
+      <c s="5" t="s">
+        <v>36</v>
+      </c>
       <c s="1" t="s">
-        <v>114</v>
-      </c>
-      <c s="1" t="s">
-        <v>83</v>
-      </c>
-      <c s="1" t="s">
-        <v>36</v>
-      </c>
-      <c s="4" t="s">
         <v>130</v>
       </c>
-      <c s="1" t="s">
+      <c s="5" t="s">
         <v>54</v>
       </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
         <v>13</v>
       </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
         <v>13</v>
       </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
-        <v>77</v>
-      </c>
-      <c s="1" t="s">
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
+        <v>77</v>
+      </c>
+      <c s="5" t="s">
         <v>70</v>
       </c>
     </row>

--- a/data-raw/bd_conteo_rapido_surveytogo.xlsx
+++ b/data-raw/bd_conteo_rapido_surveytogo.xlsx
@@ -569,11 +569,11 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -954,220 +954,220 @@
       <c t="s">
         <v>2</v>
       </c>
-      <c s="5" t="s">
+      <c s="2" t="s">
         <v>102</v>
       </c>
-      <c s="5" t="s">
+      <c s="2" t="s">
         <v>64</v>
       </c>
-      <c s="5" t="s">
+      <c s="2" t="s">
         <v>109</v>
       </c>
-      <c s="5" t="s">
+      <c s="2" t="s">
         <v>84</v>
       </c>
-      <c s="5" t="s">
+      <c s="2" t="s">
         <v>51</v>
       </c>
-      <c s="5" t="s">
+      <c s="2" t="s">
         <v>43</v>
       </c>
-      <c s="5" t="s">
+      <c s="2" t="s">
         <v>106</v>
       </c>
-      <c s="5" t="s">
+      <c s="2" t="s">
         <v>0</v>
       </c>
-      <c s="5" t="s">
+      <c s="2" t="s">
         <v>32</v>
       </c>
-      <c s="5" t="s">
+      <c s="2" t="s">
         <v>62</v>
       </c>
-      <c s="5" t="s">
+      <c s="2" t="s">
         <v>121</v>
       </c>
-      <c s="5" t="s">
+      <c s="2" t="s">
         <v>16</v>
       </c>
-      <c s="5" t="s">
+      <c s="2" t="s">
         <v>46</v>
       </c>
-      <c s="5" t="s">
+      <c s="2" t="s">
         <v>80</v>
       </c>
-      <c s="5" t="s">
+      <c s="2" t="s">
         <v>125</v>
       </c>
-      <c s="5" t="s">
+      <c s="2" t="s">
         <v>23</v>
       </c>
-      <c s="5" t="s">
+      <c s="2" t="s">
         <v>55</v>
       </c>
-      <c s="5" t="s">
+      <c s="2" t="s">
         <v>115</v>
       </c>
-      <c s="5" t="s">
+      <c s="2" t="s">
         <v>9</v>
       </c>
-      <c s="5" t="s">
+      <c s="2" t="s">
         <v>41</v>
       </c>
-      <c s="5" t="s">
+      <c s="2" t="s">
         <v>73</v>
       </c>
-      <c s="5" t="s">
+      <c s="2" t="s">
         <v>127</v>
       </c>
-      <c s="5" t="s">
+      <c s="2" t="s">
         <v>131</v>
       </c>
-      <c s="5" t="s">
+      <c s="2" t="s">
         <v>31</v>
       </c>
-      <c s="5" t="s">
+      <c s="2" t="s">
         <v>61</v>
       </c>
-      <c s="5" t="s">
+      <c s="2" t="s">
         <v>119</v>
       </c>
-      <c s="5" t="s">
+      <c s="2" t="s">
         <v>14</v>
       </c>
-      <c s="5" t="s">
+      <c s="2" t="s">
         <v>45</v>
       </c>
-      <c s="5" t="s">
+      <c s="2" t="s">
         <v>79</v>
       </c>
-      <c s="5" t="s">
+      <c s="2" t="s">
         <v>1</v>
       </c>
-      <c s="5" t="s">
+      <c s="2" t="s">
         <v>33</v>
       </c>
-      <c s="5" t="s">
+      <c s="2" t="s">
         <v>34</v>
       </c>
-      <c s="5" t="s">
+      <c s="2" t="s">
         <v>63</v>
       </c>
-      <c s="5" t="s">
+      <c s="2" t="s">
         <v>88</v>
       </c>
-      <c s="5" t="s">
+      <c s="2" t="s">
         <v>20</v>
       </c>
-      <c s="5" t="s">
+      <c s="2" t="s">
         <v>49</v>
       </c>
-      <c s="5" t="s">
+      <c s="2" t="s">
         <v>81</v>
       </c>
-      <c s="5" t="s">
+      <c s="2" t="s">
         <v>96</v>
       </c>
-      <c s="5" t="s">
+      <c s="2" t="s">
         <v>39</v>
       </c>
-      <c s="5" t="s">
+      <c s="2" t="s">
         <v>72</v>
       </c>
-      <c s="5" t="s">
+      <c s="2" t="s">
         <v>92</v>
       </c>
-      <c s="5" t="s">
+      <c s="2" t="s">
         <v>52</v>
       </c>
-      <c s="5" t="s">
+      <c s="2" t="s">
         <v>117</v>
       </c>
-      <c s="5" t="s">
+      <c s="2" t="s">
         <v>112</v>
       </c>
-      <c s="5" t="s">
+      <c s="2" t="s">
         <v>40</v>
       </c>
-      <c s="5" t="s">
+      <c s="2" t="s">
         <v>30</v>
       </c>
-      <c s="5" t="s">
+      <c s="2" t="s">
         <v>123</v>
       </c>
-      <c s="5" t="s">
+      <c s="2" t="s">
         <v>124</v>
       </c>
-      <c s="5" t="s">
+      <c s="2" t="s">
         <v>47</v>
       </c>
-      <c s="5" t="s">
+      <c s="2" t="s">
         <v>126</v>
       </c>
-      <c s="5" t="s">
+      <c s="2" t="s">
         <v>82</v>
       </c>
-      <c s="5" t="s">
+      <c s="2" t="s">
         <v>68</v>
       </c>
-      <c s="5" t="s">
+      <c s="2" t="s">
         <v>91</v>
       </c>
-      <c s="5" t="s">
+      <c s="2" t="s">
         <v>93</v>
       </c>
-      <c s="5" t="s">
+      <c s="2" t="s">
         <v>50</v>
       </c>
-      <c s="5" t="s">
+      <c s="2" t="s">
         <v>105</v>
       </c>
-      <c s="5" t="s">
+      <c s="2" t="s">
         <v>99</v>
       </c>
-      <c s="5" t="s">
+      <c s="2" t="s">
         <v>90</v>
       </c>
-      <c s="5" t="s">
+      <c s="2" t="s">
         <v>58</v>
       </c>
-      <c s="5" t="s">
+      <c s="2" t="s">
         <v>5</v>
       </c>
-      <c s="5" t="s">
+      <c s="2" t="s">
         <v>53</v>
       </c>
-      <c s="5" t="s">
+      <c s="2" t="s">
         <v>37</v>
       </c>
-      <c s="5" t="s">
+      <c s="2" t="s">
         <v>6</v>
       </c>
-      <c s="5" t="s">
+      <c s="2" t="s">
         <v>19</v>
       </c>
-      <c s="5" t="s">
+      <c s="2" t="s">
         <v>128</v>
       </c>
-      <c s="5" t="s">
+      <c s="2" t="s">
         <v>110</v>
       </c>
-      <c s="5" t="s">
+      <c s="2" t="s">
         <v>95</v>
       </c>
-      <c s="5" t="s">
+      <c s="2" t="s">
         <v>75</v>
       </c>
-      <c s="5" t="s">
+      <c s="2" t="s">
         <v>57</v>
       </c>
-      <c s="5" t="s">
+      <c s="2" t="s">
         <v>78</v>
       </c>
-      <c s="5" t="s">
+      <c s="2" t="s">
         <v>107</v>
       </c>
-      <c s="5" t="s">
+      <c s="2" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1178,7 +1178,7 @@
       <c>
         <v>-1</v>
       </c>
-      <c s="4">
+      <c s="5">
         <v>45445.04587962963</v>
       </c>
       <c t="s">
@@ -1187,13 +1187,13 @@
       <c t="s">
         <v>98</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="1">
         <v>0.0069328703703703705</v>
       </c>
-      <c s="4">
+      <c s="5">
         <v>45445.0528125</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="5">
         <v>2958465.999988426</v>
       </c>
       <c r="M2" t="b">
@@ -1205,7 +1205,7 @@
       <c t="b">
         <v>0</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="Q2" s="3" t="s">
         <v>3</v>
       </c>
       <c>
@@ -1217,10 +1217,10 @@
       <c>
         <v>-8</v>
       </c>
-      <c r="X2" s="4">
+      <c r="X2" s="5">
         <v>45445.04587962963</v>
       </c>
-      <c s="4">
+      <c s="5">
         <v>45445.0528125</v>
       </c>
       <c t="s">
@@ -1229,220 +1229,220 @@
       <c>
         <v>-1</v>
       </c>
-      <c s="5" t="s">
+      <c s="2" t="s">
         <v>113</v>
       </c>
-      <c s="5" t="s">
+      <c s="2" t="s">
         <v>104</v>
       </c>
-      <c s="5" t="s">
+      <c s="2" t="s">
         <v>59</v>
       </c>
-      <c s="1" t="s">
+      <c s="4" t="s">
         <v>100</v>
       </c>
-      <c s="5" t="s">
+      <c s="2" t="s">
         <v>54</v>
       </c>
-      <c s="5" t="s">
-        <v>44</v>
-      </c>
-      <c s="5" t="s">
-        <v>44</v>
-      </c>
-      <c s="5" t="s">
-        <v>44</v>
-      </c>
-      <c s="5" t="s">
-        <v>44</v>
-      </c>
-      <c s="5" t="s">
-        <v>44</v>
-      </c>
-      <c s="5" t="s">
-        <v>44</v>
-      </c>
-      <c s="5" t="s">
-        <v>44</v>
-      </c>
-      <c s="5" t="s">
-        <v>44</v>
-      </c>
-      <c s="5" t="s">
-        <v>44</v>
-      </c>
-      <c s="5" t="s">
-        <v>44</v>
-      </c>
-      <c s="5" t="s">
-        <v>44</v>
-      </c>
-      <c s="5" t="s">
-        <v>44</v>
-      </c>
-      <c s="5" t="s">
-        <v>44</v>
-      </c>
-      <c s="5" t="s">
-        <v>44</v>
-      </c>
-      <c s="5" t="s">
-        <v>44</v>
-      </c>
-      <c s="5" t="s">
-        <v>44</v>
-      </c>
-      <c s="5" t="s">
-        <v>44</v>
-      </c>
-      <c s="5" t="s">
-        <v>44</v>
-      </c>
-      <c s="5" t="s">
-        <v>44</v>
-      </c>
-      <c s="5" t="s">
-        <v>44</v>
-      </c>
-      <c s="5" t="s">
-        <v>44</v>
-      </c>
-      <c s="5" t="s">
-        <v>44</v>
-      </c>
-      <c s="5" t="s">
-        <v>44</v>
-      </c>
-      <c s="5" t="s">
-        <v>44</v>
-      </c>
-      <c s="5" t="s">
-        <v>44</v>
-      </c>
-      <c s="5" t="s">
-        <v>44</v>
-      </c>
-      <c s="5" t="s">
-        <v>44</v>
-      </c>
-      <c s="5" t="s">
-        <v>44</v>
-      </c>
-      <c s="5" t="s">
-        <v>44</v>
-      </c>
-      <c s="5" t="s">
-        <v>44</v>
-      </c>
-      <c s="5" t="s">
-        <v>44</v>
-      </c>
-      <c s="5" t="s">
-        <v>44</v>
-      </c>
-      <c s="5" t="s">
-        <v>44</v>
-      </c>
-      <c s="5" t="s">
-        <v>44</v>
-      </c>
-      <c s="5" t="s">
-        <v>44</v>
-      </c>
-      <c s="5" t="s">
-        <v>44</v>
-      </c>
-      <c s="5" t="s">
-        <v>44</v>
-      </c>
-      <c s="5" t="s">
-        <v>44</v>
-      </c>
-      <c s="5" t="s">
-        <v>44</v>
-      </c>
-      <c s="5" t="s">
-        <v>44</v>
-      </c>
-      <c s="5" t="s">
-        <v>44</v>
-      </c>
-      <c s="5" t="s">
-        <v>44</v>
-      </c>
-      <c s="5" t="s">
-        <v>44</v>
-      </c>
-      <c s="5" t="s">
-        <v>44</v>
-      </c>
-      <c s="5" t="s">
-        <v>44</v>
-      </c>
-      <c s="5" t="s">
-        <v>44</v>
-      </c>
-      <c s="5" t="s">
-        <v>44</v>
-      </c>
-      <c s="5" t="s">
-        <v>44</v>
-      </c>
-      <c s="5" t="s">
-        <v>44</v>
-      </c>
-      <c s="5" t="s">
-        <v>44</v>
-      </c>
-      <c s="5" t="s">
-        <v>44</v>
-      </c>
-      <c s="5" t="s">
-        <v>44</v>
-      </c>
-      <c s="5" t="s">
-        <v>44</v>
-      </c>
-      <c s="5" t="s">
-        <v>44</v>
-      </c>
-      <c s="5" t="s">
-        <v>44</v>
-      </c>
-      <c s="5" t="s">
-        <v>44</v>
-      </c>
-      <c s="5" t="s">
-        <v>44</v>
-      </c>
-      <c s="5" t="s">
-        <v>44</v>
-      </c>
-      <c s="5" t="s">
-        <v>44</v>
-      </c>
-      <c s="5" t="s">
-        <v>44</v>
-      </c>
-      <c s="5" t="s">
-        <v>44</v>
-      </c>
-      <c s="5" t="s">
-        <v>44</v>
-      </c>
-      <c s="5" t="s">
-        <v>44</v>
-      </c>
-      <c s="5" t="s">
-        <v>44</v>
-      </c>
-      <c s="5" t="s">
-        <v>44</v>
-      </c>
-      <c s="5" t="s">
-        <v>44</v>
-      </c>
-      <c s="5" t="s">
+      <c s="2" t="s">
+        <v>44</v>
+      </c>
+      <c s="2" t="s">
+        <v>44</v>
+      </c>
+      <c s="2" t="s">
+        <v>44</v>
+      </c>
+      <c s="2" t="s">
+        <v>44</v>
+      </c>
+      <c s="2" t="s">
+        <v>44</v>
+      </c>
+      <c s="2" t="s">
+        <v>44</v>
+      </c>
+      <c s="2" t="s">
+        <v>44</v>
+      </c>
+      <c s="2" t="s">
+        <v>44</v>
+      </c>
+      <c s="2" t="s">
+        <v>44</v>
+      </c>
+      <c s="2" t="s">
+        <v>44</v>
+      </c>
+      <c s="2" t="s">
+        <v>44</v>
+      </c>
+      <c s="2" t="s">
+        <v>44</v>
+      </c>
+      <c s="2" t="s">
+        <v>44</v>
+      </c>
+      <c s="2" t="s">
+        <v>44</v>
+      </c>
+      <c s="2" t="s">
+        <v>44</v>
+      </c>
+      <c s="2" t="s">
+        <v>44</v>
+      </c>
+      <c s="2" t="s">
+        <v>44</v>
+      </c>
+      <c s="2" t="s">
+        <v>44</v>
+      </c>
+      <c s="2" t="s">
+        <v>44</v>
+      </c>
+      <c s="2" t="s">
+        <v>44</v>
+      </c>
+      <c s="2" t="s">
+        <v>44</v>
+      </c>
+      <c s="2" t="s">
+        <v>44</v>
+      </c>
+      <c s="2" t="s">
+        <v>44</v>
+      </c>
+      <c s="2" t="s">
+        <v>44</v>
+      </c>
+      <c s="2" t="s">
+        <v>44</v>
+      </c>
+      <c s="2" t="s">
+        <v>44</v>
+      </c>
+      <c s="2" t="s">
+        <v>44</v>
+      </c>
+      <c s="2" t="s">
+        <v>44</v>
+      </c>
+      <c s="2" t="s">
+        <v>44</v>
+      </c>
+      <c s="2" t="s">
+        <v>44</v>
+      </c>
+      <c s="2" t="s">
+        <v>44</v>
+      </c>
+      <c s="2" t="s">
+        <v>44</v>
+      </c>
+      <c s="2" t="s">
+        <v>44</v>
+      </c>
+      <c s="2" t="s">
+        <v>44</v>
+      </c>
+      <c s="2" t="s">
+        <v>44</v>
+      </c>
+      <c s="2" t="s">
+        <v>44</v>
+      </c>
+      <c s="2" t="s">
+        <v>44</v>
+      </c>
+      <c s="2" t="s">
+        <v>44</v>
+      </c>
+      <c s="2" t="s">
+        <v>44</v>
+      </c>
+      <c s="2" t="s">
+        <v>44</v>
+      </c>
+      <c s="2" t="s">
+        <v>44</v>
+      </c>
+      <c s="2" t="s">
+        <v>44</v>
+      </c>
+      <c s="2" t="s">
+        <v>44</v>
+      </c>
+      <c s="2" t="s">
+        <v>44</v>
+      </c>
+      <c s="2" t="s">
+        <v>44</v>
+      </c>
+      <c s="2" t="s">
+        <v>44</v>
+      </c>
+      <c s="2" t="s">
+        <v>44</v>
+      </c>
+      <c s="2" t="s">
+        <v>44</v>
+      </c>
+      <c s="2" t="s">
+        <v>44</v>
+      </c>
+      <c s="2" t="s">
+        <v>44</v>
+      </c>
+      <c s="2" t="s">
+        <v>44</v>
+      </c>
+      <c s="2" t="s">
+        <v>44</v>
+      </c>
+      <c s="2" t="s">
+        <v>44</v>
+      </c>
+      <c s="2" t="s">
+        <v>44</v>
+      </c>
+      <c s="2" t="s">
+        <v>44</v>
+      </c>
+      <c s="2" t="s">
+        <v>44</v>
+      </c>
+      <c s="2" t="s">
+        <v>44</v>
+      </c>
+      <c s="2" t="s">
+        <v>44</v>
+      </c>
+      <c s="2" t="s">
+        <v>44</v>
+      </c>
+      <c s="2" t="s">
+        <v>44</v>
+      </c>
+      <c s="2" t="s">
+        <v>44</v>
+      </c>
+      <c s="2" t="s">
+        <v>44</v>
+      </c>
+      <c s="2" t="s">
+        <v>44</v>
+      </c>
+      <c s="2" t="s">
+        <v>44</v>
+      </c>
+      <c s="2" t="s">
+        <v>44</v>
+      </c>
+      <c s="2" t="s">
+        <v>44</v>
+      </c>
+      <c s="2" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1453,7 +1453,7 @@
       <c>
         <v>-1</v>
       </c>
-      <c s="4">
+      <c s="5">
         <v>45444.628564814811</v>
       </c>
       <c t="s">
@@ -1462,13 +1462,13 @@
       <c t="s">
         <v>98</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="1">
         <v>0.00068287037037037036</v>
       </c>
-      <c s="4">
+      <c s="5">
         <v>45445.399351851855</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="5">
         <v>2958465.999988426</v>
       </c>
       <c r="M3" t="b">
@@ -1480,7 +1480,7 @@
       <c t="b">
         <v>0</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="Q3" s="3" t="s">
         <v>22</v>
       </c>
       <c>
@@ -1492,10 +1492,10 @@
       <c>
         <v>-8</v>
       </c>
-      <c r="X3" s="4">
+      <c r="X3" s="5">
         <v>45444.628564814811</v>
       </c>
-      <c s="4">
+      <c s="5">
         <v>45444.629247685189</v>
       </c>
       <c t="s">
@@ -1504,220 +1504,220 @@
       <c>
         <v>-1</v>
       </c>
-      <c s="5" t="s">
+      <c s="2" t="s">
         <v>22</v>
       </c>
-      <c s="5" t="s">
+      <c s="2" t="s">
         <v>38</v>
       </c>
-      <c s="5" t="s">
+      <c s="2" t="s">
         <v>36</v>
       </c>
-      <c s="1" t="s">
+      <c s="4" t="s">
         <v>24</v>
       </c>
-      <c s="5" t="s">
+      <c s="2" t="s">
         <v>35</v>
       </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
         <v>13</v>
       </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
         <v>13</v>
       </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       <c>
         <v>-1</v>
       </c>
-      <c s="4">
+      <c s="5">
         <v>45444.639502314814</v>
       </c>
       <c t="s">
@@ -1737,13 +1737,13 @@
       <c t="s">
         <v>98</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="1">
         <v>0.0006018518518518519</v>
       </c>
-      <c s="4">
+      <c s="5">
         <v>45445.399351851855</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="5">
         <v>2958465.999988426</v>
       </c>
       <c r="M4" t="b">
@@ -1755,7 +1755,7 @@
       <c t="b">
         <v>0</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="Q4" s="3" t="s">
         <v>87</v>
       </c>
       <c>
@@ -1767,10 +1767,10 @@
       <c>
         <v>-8</v>
       </c>
-      <c r="X4" s="4">
+      <c r="X4" s="5">
         <v>45444.639502314814</v>
       </c>
-      <c s="4">
+      <c s="5">
         <v>45444.640115740738</v>
       </c>
       <c t="s">
@@ -1779,220 +1779,220 @@
       <c>
         <v>-1</v>
       </c>
-      <c s="5" t="s">
+      <c s="2" t="s">
         <v>12</v>
       </c>
-      <c s="5" t="s">
+      <c s="2" t="s">
         <v>108</v>
       </c>
-      <c s="5" t="s">
+      <c s="2" t="s">
         <v>36</v>
       </c>
-      <c s="1" t="s">
+      <c s="4" t="s">
         <v>42</v>
       </c>
-      <c s="5" t="s">
+      <c s="2" t="s">
         <v>4</v>
       </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
         <v>13</v>
       </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
         <v>13</v>
       </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2003,7 +2003,7 @@
       <c>
         <v>-1</v>
       </c>
-      <c s="4">
+      <c s="5">
         <v>45444.681111111109</v>
       </c>
       <c t="s">
@@ -2012,13 +2012,13 @@
       <c t="s">
         <v>98</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="1">
         <v>0.00052083333333333333</v>
       </c>
-      <c s="4">
+      <c s="5">
         <v>45445.399375</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="5">
         <v>2958465.999988426</v>
       </c>
       <c r="M5" t="b">
@@ -2030,7 +2030,7 @@
       <c t="b">
         <v>0</v>
       </c>
-      <c r="Q5" s="2" t="s">
+      <c r="Q5" s="3" t="s">
         <v>8</v>
       </c>
       <c>
@@ -2042,10 +2042,10 @@
       <c>
         <v>-8</v>
       </c>
-      <c r="X5" s="4">
+      <c r="X5" s="5">
         <v>45444.681111111109</v>
       </c>
-      <c s="4">
+      <c s="5">
         <v>45444.681643518517</v>
       </c>
       <c t="s">
@@ -2054,220 +2054,220 @@
       <c>
         <v>-1</v>
       </c>
-      <c s="5" t="s">
+      <c s="2" t="s">
         <v>26</v>
       </c>
-      <c s="5" t="s">
+      <c s="2" t="s">
         <v>65</v>
       </c>
-      <c s="5" t="s">
+      <c s="2" t="s">
         <v>36</v>
       </c>
-      <c s="1" t="s">
+      <c s="4" t="s">
         <v>56</v>
       </c>
-      <c s="5" t="s">
+      <c s="2" t="s">
         <v>66</v>
       </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
         <v>13</v>
       </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
         <v>13</v>
       </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2278,7 +2278,7 @@
       <c>
         <v>-1</v>
       </c>
-      <c s="4">
+      <c s="5">
         <v>45444.747893518521</v>
       </c>
       <c t="s">
@@ -2287,13 +2287,13 @@
       <c t="s">
         <v>98</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="1">
         <v>0.00045138888888888887</v>
       </c>
-      <c s="4">
+      <c s="5">
         <v>45445.399375</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="5">
         <v>2958465.999988426</v>
       </c>
       <c r="M6" t="b">
@@ -2305,7 +2305,7 @@
       <c t="b">
         <v>0</v>
       </c>
-      <c r="Q6" s="2" t="s">
+      <c r="Q6" s="3" t="s">
         <v>114</v>
       </c>
       <c>
@@ -2317,10 +2317,10 @@
       <c>
         <v>-8</v>
       </c>
-      <c r="X6" s="4">
+      <c r="X6" s="5">
         <v>45444.747893518521</v>
       </c>
-      <c s="4">
+      <c s="5">
         <v>45444.748356481483</v>
       </c>
       <c t="s">
@@ -2329,220 +2329,220 @@
       <c>
         <v>-1</v>
       </c>
-      <c s="5" t="s">
+      <c s="2" t="s">
         <v>114</v>
       </c>
-      <c s="5" t="s">
+      <c s="2" t="s">
         <v>83</v>
       </c>
-      <c s="5" t="s">
+      <c s="2" t="s">
         <v>36</v>
       </c>
-      <c s="1" t="s">
+      <c s="4" t="s">
         <v>130</v>
       </c>
-      <c s="5" t="s">
+      <c s="2" t="s">
         <v>54</v>
       </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
         <v>13</v>
       </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
         <v>13</v>
       </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
-        <v>77</v>
-      </c>
-      <c s="5" t="s">
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
+        <v>77</v>
+      </c>
+      <c s="2" t="s">
         <v>70</v>
       </c>
     </row>
